--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\main\30_リリース\本番\202407\20240717\03370\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20172【会計】消費税振替仕訳エラー\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,7 +417,7 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23'!$A$10:$Z$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23'!$A$10:$Z$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="_FND2" localSheetId="1">#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="173">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1974,11 +1974,50 @@
   <si>
     <t>999-9090-39230-3923000000-000000000-000000-0-0</t>
   </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>002-9090-39230-3923000000-000000000-000000-0-0</t>
+  </si>
+  <si>
+    <t>会社間振替</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>003-9090-39220-3922000000-000000000-000000-0-0</t>
+  </si>
+  <si>
+    <t>SCSK 郭</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_20172【会計】消費税振替仕訳エラー 対応
+消費税会社間振替について、002⇔003間の設定追加</t>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>セッテイツイカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
@@ -2387,7 +2426,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2492,6 +2531,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3057,7 +3102,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -3272,9 +3317,6 @@
     <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3293,6 +3335,69 @@
     <xf numFmtId="14" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3302,6 +3407,15 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3311,6 +3425,33 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3320,152 +3461,93 @@
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="37" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -11239,9 +11321,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:AK10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
@@ -11252,1193 +11332,1220 @@
   <sheetData>
     <row r="1" spans="1:37" ht="12" thickBot="1"/>
     <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="94" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="136" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="137"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="85"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="97">
+      <c r="A3" s="141">
         <v>44865</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="121" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="138" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="99"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="88"/>
     </row>
     <row r="4" spans="1:37" ht="48" customHeight="1">
-      <c r="A4" s="100">
+      <c r="A4" s="144">
         <v>45027</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="124" t="s">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="139" t="s">
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="102"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91"/>
     </row>
     <row r="5" spans="1:37" ht="82.9" customHeight="1">
-      <c r="A5" s="100">
+      <c r="A5" s="144">
         <v>45355</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="124" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="140" t="s">
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141"/>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="141"/>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="142"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="94"/>
     </row>
-    <row r="6" spans="1:37" ht="55.5" customHeight="1">
-      <c r="A6" s="108">
+    <row r="6" spans="1:37" s="136" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A6" s="147">
         <v>45485</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="114" t="s">
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="127" t="s">
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="129"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="134"/>
+      <c r="Y6" s="134"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="134"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="134"/>
+      <c r="AH6" s="134"/>
+      <c r="AI6" s="134"/>
+      <c r="AJ6" s="134"/>
+      <c r="AK6" s="135"/>
     </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="131"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="132"/>
+    <row r="7" spans="1:37" ht="24" customHeight="1">
+      <c r="A7" s="137">
+        <v>45538</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="139"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="139"/>
+      <c r="AA7" s="139"/>
+      <c r="AB7" s="139"/>
+      <c r="AC7" s="139"/>
+      <c r="AD7" s="139"/>
+      <c r="AE7" s="139"/>
+      <c r="AF7" s="139"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="139"/>
+      <c r="AJ7" s="139"/>
+      <c r="AK7" s="140"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="131"/>
-      <c r="AH8" s="131"/>
-      <c r="AI8" s="131"/>
-      <c r="AJ8" s="131"/>
-      <c r="AK8" s="132"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="99"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="134"/>
-      <c r="AA9" s="134"/>
-      <c r="AB9" s="134"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="134"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="134"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="134"/>
-      <c r="AJ9" s="134"/>
-      <c r="AK9" s="135"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="102"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="131"/>
-      <c r="AE10" s="131"/>
-      <c r="AF10" s="131"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="132"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="99"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="117"/>
-      <c r="AE11" s="117"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="118"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="96"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="117"/>
-      <c r="AE12" s="117"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="118"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="96"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="118"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="96"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="117"/>
-      <c r="AE14" s="117"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="118"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="96"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="118"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="96"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="118"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="96"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="118"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="96"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="118"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="96"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="118"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="96"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="88"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="118"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="96"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="88"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="118"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="96"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="88"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="118"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="96"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="118"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="96"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="88"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="118"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="96"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="88"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="117"/>
-      <c r="AK25" s="118"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="96"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="88"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="118"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="96"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="117"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="118"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="96"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="117"/>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="118"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="96"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="88"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="117"/>
-      <c r="W29" s="117"/>
-      <c r="X29" s="117"/>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="117"/>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="118"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="96"/>
     </row>
     <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="119"/>
-      <c r="S30" s="119"/>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="119"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="119"/>
-      <c r="AA30" s="119"/>
-      <c r="AB30" s="119"/>
-      <c r="AC30" s="119"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="119"/>
-      <c r="AF30" s="119"/>
-      <c r="AG30" s="119"/>
-      <c r="AH30" s="119"/>
-      <c r="AI30" s="119"/>
-      <c r="AJ30" s="119"/>
-      <c r="AK30" s="120"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="103"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="J28:AK28"/>
     <mergeCell ref="J29:AK29"/>
     <mergeCell ref="J30:AK30"/>
@@ -12455,52 +12562,31 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12511,14 +12597,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF99CC"/>
-  </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75"/>
   <cols>
@@ -12644,11 +12725,11 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z92"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -12977,43 +13058,43 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" s="24" customFormat="1" ht="47.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="81">
         <v>36526</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="82">
         <v>45412</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="83" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13096,43 +13177,43 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="24" customFormat="1" ht="47.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="G14" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="81">
         <v>36526</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="82">
         <v>45412</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="83" t="s">
         <v>84</v>
       </c>
     </row>
@@ -13293,199 +13374,199 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="39" customFormat="1" ht="47.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="75">
         <v>36526</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45" t="s">
+      <c r="J19" s="76"/>
+      <c r="K19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="75">
         <v>36526</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="75">
         <v>36526</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45" t="s">
+      <c r="J21" s="76"/>
+      <c r="K21" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="77" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="75">
         <v>36526</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45" t="s">
+      <c r="J22" s="76"/>
+      <c r="K22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="L22" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="45" t="s">
+      <c r="M22" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="82">
+      <c r="I23" s="81">
         <v>36526</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J23" s="82">
         <v>45412</v>
       </c>
-      <c r="K23" s="84" t="s">
+      <c r="K23" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="84" t="s">
+      <c r="L23" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="84" t="s">
+      <c r="M23" s="83" t="s">
         <v>88</v>
       </c>
     </row>
@@ -13568,43 +13649,43 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="80" t="s">
+      <c r="F26" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I26" s="81">
         <v>36526</v>
       </c>
-      <c r="J26" s="83">
+      <c r="J26" s="82">
         <v>45412</v>
       </c>
-      <c r="K26" s="84" t="s">
+      <c r="K26" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="84" t="s">
+      <c r="L26" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="84" t="s">
+      <c r="M26" s="83" t="s">
         <v>92</v>
       </c>
     </row>
@@ -13765,158 +13846,158 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="75">
         <v>36526</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45" t="s">
+      <c r="J31" s="76"/>
+      <c r="K31" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="45" t="s">
+      <c r="L31" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="45" t="s">
+      <c r="M31" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="42" t="s">
+      <c r="H32" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="75">
         <v>36526</v>
       </c>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45" t="s">
+      <c r="J32" s="76"/>
+      <c r="K32" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="45" t="s">
+      <c r="M32" s="77" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H33" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="75">
         <v>36526</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45" t="s">
+      <c r="J33" s="76"/>
+      <c r="K33" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="L33" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="45" t="s">
+      <c r="M33" s="77" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="75">
         <v>36526</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45" t="s">
+      <c r="J34" s="76"/>
+      <c r="K34" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="45" t="s">
+      <c r="M34" s="77" t="s">
         <v>107</v>
       </c>
     </row>
@@ -13999,236 +14080,236 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="75">
         <v>36526</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45" t="s">
+      <c r="J37" s="76"/>
+      <c r="K37" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L37" s="45" t="s">
+      <c r="L37" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="45" t="s">
+      <c r="M37" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="75">
         <v>36526</v>
       </c>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45" t="s">
+      <c r="J38" s="76"/>
+      <c r="K38" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="45" t="s">
+      <c r="L38" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="45" t="s">
+      <c r="M38" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A39" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="73" t="s">
+      <c r="B39" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="75">
+      <c r="D39" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="43">
         <v>36526</v>
       </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="77" t="s">
-        <v>29</v>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="75">
+      <c r="E40" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="43">
         <v>36526</v>
       </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="77" t="s">
-        <v>29</v>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="40" t="s">
+      <c r="C41" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="43">
+      <c r="E41" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="75">
         <v>36526</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="M41" s="45" t="s">
+      <c r="J41" s="76"/>
+      <c r="K41" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A42" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="40" t="s">
+      <c r="A42" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="40" t="s">
+      <c r="B42" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="43">
+      <c r="D42" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="75">
         <v>36526</v>
       </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="M42" s="45" t="s">
+      <c r="J42" s="76"/>
+      <c r="K42" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="77" t="s">
         <v>29</v>
       </c>
     </row>
@@ -14240,32 +14321,32 @@
         <v>10</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D43" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="74" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F43" s="74" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="H43" s="72" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="I43" s="75">
         <v>36526</v>
       </c>
       <c r="J43" s="76"/>
       <c r="K43" s="77" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="L43" s="77" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="M43" s="77" t="s">
         <v>29</v>
@@ -14273,356 +14354,356 @@
     </row>
     <row r="44" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A44" s="73" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B44" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="73" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D44" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="74" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F44" s="74" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G44" s="72" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H44" s="72" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="I44" s="75">
         <v>36526</v>
       </c>
       <c r="J44" s="76"/>
       <c r="K44" s="77" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="L44" s="77" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="M44" s="77" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A45" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="40" t="s">
+      <c r="C45" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="43">
+      <c r="E45" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="75">
         <v>36526</v>
       </c>
-      <c r="J45" s="44"/>
-      <c r="K45" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="L45" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="M45" s="45" t="s">
-        <v>123</v>
+      <c r="J45" s="76"/>
+      <c r="K45" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="77" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A46" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="40" t="s">
+      <c r="A46" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="40" t="s">
+      <c r="B46" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="43">
+      <c r="D46" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="75">
         <v>36526</v>
       </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="L46" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="M46" s="45" t="s">
-        <v>123</v>
+      <c r="J46" s="76"/>
+      <c r="K46" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="77" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A47" s="73" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B47" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="73" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D47" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="74" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F47" s="74" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G47" s="72" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="H47" s="72" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="I47" s="75">
         <v>36526</v>
       </c>
       <c r="J47" s="76"/>
       <c r="K47" s="77" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="L47" s="77" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="M47" s="77" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A48" s="73" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B48" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D48" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="74" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F48" s="74" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="H48" s="72" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I48" s="75">
         <v>36526</v>
       </c>
       <c r="J48" s="76"/>
       <c r="K48" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A49" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" s="75">
+        <v>36526</v>
+      </c>
+      <c r="J49" s="76"/>
+      <c r="K49" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="L48" s="77" t="s">
+      <c r="L49" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="77" t="s">
+      <c r="M49" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A49" s="40" t="s">
+    <row r="50" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A50" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="75">
+        <v>36526</v>
+      </c>
+      <c r="J50" s="76"/>
+      <c r="K50" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="M50" s="77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A51" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B51" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C51" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D51" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E51" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="41" t="s">
+      <c r="F51" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G51" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H51" s="72" t="s">
         <v>163</v>
-      </c>
-      <c r="I49" s="43">
-        <v>36526</v>
-      </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="L49" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A50" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="43">
-        <v>36526</v>
-      </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="M50" s="45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" s="72" t="s">
-        <v>143</v>
       </c>
       <c r="I51" s="75">
         <v>36526</v>
       </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>146</v>
+      <c r="J51" s="76"/>
+      <c r="K51" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="77" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="24" customFormat="1" ht="47.25">
+    <row r="52" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A52" s="73" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B52" s="73" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D52" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="74" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G52" s="72" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="H52" s="72" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="I52" s="75">
         <v>36526</v>
       </c>
       <c r="J52" s="76"/>
-      <c r="K52" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>145</v>
+      <c r="K52" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="77" t="s">
+        <v>125</v>
       </c>
       <c r="M52" s="77" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="24" customFormat="1" ht="47.25">
+    <row r="53" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A53" s="19" t="s">
         <v>10</v>
       </c>
@@ -14636,32 +14717,32 @@
         <v>24</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H53" s="72" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="I53" s="75">
-        <v>45413</v>
+        <v>36526</v>
       </c>
       <c r="J53" s="22"/>
       <c r="K53" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L53" s="23" t="s">
         <v>145</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="24" customFormat="1" ht="47.25">
+    <row r="54" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A54" s="73" t="s">
         <v>10</v>
       </c>
@@ -14675,71 +14756,71 @@
         <v>24</v>
       </c>
       <c r="E54" s="74" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I54" s="75">
         <v>36526</v>
       </c>
       <c r="J54" s="76"/>
       <c r="K54" s="23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M54" s="77" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A55" s="73" t="s">
+    <row r="55" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>155</v>
+      <c r="E55" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>152</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H55" s="72" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I55" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J55" s="76"/>
+        <v>45413</v>
+      </c>
+      <c r="J55" s="22"/>
       <c r="K55" s="23" t="s">
         <v>151</v>
       </c>
       <c r="L55" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M55" s="77" t="s">
-        <v>146</v>
+      <c r="M55" s="23" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="24" customFormat="1" ht="47.25">
+    <row r="56" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A56" s="73" t="s">
         <v>10</v>
       </c>
@@ -14753,314 +14834,310 @@
         <v>24</v>
       </c>
       <c r="E56" s="74" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G56" s="72" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I56" s="75">
-        <v>45413</v>
+        <v>36526</v>
       </c>
       <c r="J56" s="76"/>
       <c r="K56" s="23" t="s">
         <v>144</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M56" s="77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A57" s="40" t="s">
+    <row r="57" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A57" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="I57" s="75">
+        <v>36526</v>
+      </c>
+      <c r="J57" s="76"/>
+      <c r="K57" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M57" s="77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A58" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H58" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I58" s="75">
+        <v>45413</v>
+      </c>
+      <c r="J58" s="76"/>
+      <c r="K58" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M58" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A59" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F57" s="41" t="s">
+      <c r="F59" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G59" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="H59" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I59" s="75">
         <v>36526</v>
       </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="78" t="s">
+      <c r="J59" s="76"/>
+      <c r="K59" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="L57" s="78" t="s">
+      <c r="L59" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="M57" s="45" t="s">
+      <c r="M59" s="77" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A58" s="40" t="s">
+    <row r="60" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A60" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B60" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C60" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D60" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E60" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="41" t="s">
+      <c r="F60" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G60" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="H58" s="42" t="s">
+      <c r="H60" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I58" s="43">
+      <c r="I60" s="75">
         <v>36526</v>
       </c>
-      <c r="J58" s="44"/>
-      <c r="K58" s="78" t="s">
+      <c r="J60" s="76"/>
+      <c r="K60" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="L58" s="78" t="s">
+      <c r="L60" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M58" s="45" t="s">
+      <c r="M60" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A59" s="40" t="s">
+    <row r="61" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A61" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B61" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C61" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D61" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E61" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F61" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G61" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="H59" s="42" t="s">
+      <c r="H61" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I61" s="75">
         <v>45413</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="78" t="s">
+      <c r="J61" s="76"/>
+      <c r="K61" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="L59" s="78" t="s">
+      <c r="L61" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M59" s="45" t="s">
+      <c r="M61" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="24" customFormat="1" ht="47.25">
-      <c r="A60" s="40" t="s">
+    <row r="62" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A62" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B62" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C62" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D62" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E62" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F60" s="41" t="s">
+      <c r="F62" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G62" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="H60" s="42" t="s">
+      <c r="H62" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I62" s="75">
         <v>45413</v>
       </c>
-      <c r="J60" s="44"/>
-      <c r="K60" s="78" t="s">
+      <c r="J62" s="76"/>
+      <c r="K62" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="L60" s="78" t="s">
+      <c r="L62" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M60" s="45" t="s">
+      <c r="M62" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="24" customFormat="1" ht="15.75">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="39"/>
+    <row r="63" spans="1:14" s="24" customFormat="1" ht="15.75">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="39"/>
     </row>
-    <row r="62" spans="1:25" s="24" customFormat="1" ht="15.75">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
+    <row r="64" spans="1:14" s="24" customFormat="1" ht="15.75">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M65" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -15073,37 +15150,89 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
-      <c r="Z65" s="7"/>
     </row>
-    <row r="66" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
     </row>
-    <row r="67" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" s="24" customFormat="1" ht="15.75">
       <c r="A68" s="19"/>
@@ -15150,77 +15279,50 @@
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
+    <row r="71" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
+    <row r="72" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="29"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
@@ -15233,22 +15335,23 @@
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="A74" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="34"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
@@ -15264,9 +15367,7 @@
       <c r="Y74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -15293,39 +15394,19 @@
       <c r="Y75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A76" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
@@ -15337,32 +15418,73 @@
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:26" s="7" customFormat="1" ht="15.75">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="29"/>
+      <c r="A78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -15375,47 +15497,31 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+    <row r="79" spans="1:26" s="7" customFormat="1" ht="15.75">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="29"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
@@ -15427,13 +15533,10 @@
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>40</v>
+      <c r="A81" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -15461,33 +15564,18 @@
       <c r="Y81" s="7"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
@@ -15502,16 +15590,21 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A83" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
@@ -15526,16 +15619,34 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
@@ -15550,16 +15661,16 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+    <row r="85" spans="1:25" ht="15.75">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
@@ -15574,19 +15685,16 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+    <row r="86" spans="1:25" ht="15.75">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
@@ -15602,20 +15710,15 @@
       <c r="Y86" s="7"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -15631,9 +15734,7 @@
       <c r="Y87" s="7"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -15660,30 +15761,16 @@
       <c r="Y88" s="7"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A89" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
@@ -15702,25 +15789,60 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" s="7" customFormat="1" ht="15.75">
-      <c r="A90" s="12"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="12"/>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="18"/>
+      <c r="A91" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -15739,37 +15861,74 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="30" t="s">
+    <row r="92" spans="1:25" s="7" customFormat="1" ht="15.75">
+      <c r="A92" s="12"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A94" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:Z60"/>
+  <autoFilter ref="A10:Z62"/>
   <phoneticPr fontId="36"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次"/>
@@ -15780,7 +15939,7 @@
     <oddFooter>&amp;L&amp;A&amp;C&amp;P／&amp;R&amp;F</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E11:M20 E23:M32 E21:F22 I21:M22 E35:M36 E42:M44 E41:F41 I41:M41 E57:M57 E49:F49 I49:M49 E61:M62 E33:F34 I33:M34 E38:M40 E37:F37 I37:M37 E46:M48 E45:F45 I45:M45 E59:F60 I59:M60 E50:M50 E51:F56 E58:J58 M58" numberStoredAsText="1"/>
+    <ignoredError sqref="E11:M20 E23:M32 E21:F22 I21:M22 E35:M36 E44:M46 E43:F43 I43:M43 E59:M59 E51:F51 I51:M51 E63:M64 E33:F34 I33:M34 E41:M42 E37:F37 I37:M37 E48:M50 E47:F47 I47:M47 E61:F62 I61:M62 E52:M52 E53:F58 E60:J60 M60 E38:M38 E39:F40" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20172【会計】消費税振替仕訳エラー\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20172【会計】消費税振替仕訳エラー\10_構成管理\20_チェックイン\03395\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -417,7 +417,7 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" localSheetId="1" hidden="1">[1]責準明細表!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[2]テーブル仕様!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23'!$A$10:$Z$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'23'!$A$10:$Z$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">手順!#REF!</definedName>
     <definedName name="_FND2" localSheetId="1">#REF!</definedName>
     <definedName name="_FND2">#REF!</definedName>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="186">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2010,6 +2010,106 @@
     </rPh>
     <rPh sb="51" eb="55">
       <t>セッテイツイカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>会社間振替</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>002-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>003-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_20172【会計】消費税振替仕訳エラー 対応分の無効化</t>
+    <rPh sb="26" eb="28">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>2000/01/01</t>
+  </si>
+  <si>
+    <t>2024/04/30</t>
+  </si>
+  <si>
+    <t>2024/05/01</t>
+  </si>
+  <si>
+    <t>2000/01/02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2000/01/03
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo ui"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※T4環境は 2000/01/01</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2000/01/04
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo ui"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※T4環境は 2000/01/02</t>
+    </r>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>※リリースミスのため無効化</t>
+    <rPh sb="10" eb="13">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>※障害対応完了のため無効化</t>
+  </si>
+  <si>
+    <t>※障害対応完了のため無効化</t>
+    <rPh sb="1" eb="3">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ムコウ</t>
     </rPh>
     <phoneticPr fontId="36"/>
   </si>
@@ -3102,7 +3202,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -3173,9 +3273,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3223,12 +3320,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
@@ -3309,12 +3400,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,13 +3412,252 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="16" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="61" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="16" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3367,187 +3691,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="37" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -11332,1174 +11475,1251 @@
   <sheetData>
     <row r="1" spans="1:37" ht="12" thickBot="1"/>
     <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="108" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="84" t="s">
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="85"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="161"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="141">
+      <c r="A3" s="115">
         <v>44865</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="114" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="86" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="88"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
+      <c r="AK3" s="164"/>
     </row>
     <row r="4" spans="1:37" ht="48" customHeight="1">
-      <c r="A4" s="144">
+      <c r="A4" s="118">
         <v>45027</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="117" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="89" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="166"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="167"/>
     </row>
     <row r="5" spans="1:37" ht="82.9" customHeight="1">
-      <c r="A5" s="144">
+      <c r="A5" s="118">
         <v>45355</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="117" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="92" t="s">
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="94"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="169"/>
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="170"/>
     </row>
-    <row r="6" spans="1:37" s="136" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A6" s="147">
+    <row r="6" spans="1:37" s="77" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A6" s="126">
         <v>45485</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133" t="s">
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="134"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="134"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
-      <c r="Y6" s="134"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="134"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="134"/>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="134"/>
-      <c r="AJ6" s="134"/>
-      <c r="AK6" s="135"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="147"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1">
-      <c r="A7" s="137">
+      <c r="A7" s="118">
         <v>45538</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="120" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="138" t="s">
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="148" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="139"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="139"/>
-      <c r="AK7" s="140"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="149"/>
+      <c r="AJ7" s="149"/>
+      <c r="AK7" s="150"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
+      <c r="A8" s="129">
+        <v>45545</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="151" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="153"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="150"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="102"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="155"/>
+      <c r="AG9" s="155"/>
+      <c r="AH9" s="155"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="155"/>
+      <c r="AK9" s="156"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="126"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="158"/>
+      <c r="AB10" s="158"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="159"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="129"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="96"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="135"/>
+      <c r="AK11" s="136"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="129"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="96"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="135"/>
+      <c r="AK12" s="136"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="129"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="96"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="136"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="129"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="96"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="136"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="129"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="96"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="135"/>
+      <c r="AK15" s="136"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="129"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="96"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="135"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="136"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="129"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="96"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="135"/>
+      <c r="AJ17" s="135"/>
+      <c r="AK17" s="136"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="129"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="96"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="135"/>
+      <c r="AJ18" s="135"/>
+      <c r="AK18" s="136"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="129"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="96"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="135"/>
+      <c r="AK19" s="136"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="129"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="96"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="135"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="135"/>
+      <c r="AJ20" s="135"/>
+      <c r="AK20" s="136"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="129"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="96"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="135"/>
+      <c r="AJ21" s="135"/>
+      <c r="AK21" s="136"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="129"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="96"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="135"/>
+      <c r="AJ22" s="135"/>
+      <c r="AK22" s="136"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="129"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="96"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="135"/>
+      <c r="AJ23" s="135"/>
+      <c r="AK23" s="136"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="129"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="96"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="135"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="135"/>
+      <c r="AJ24" s="135"/>
+      <c r="AK24" s="136"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="129"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="96"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="135"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="135"/>
+      <c r="AJ25" s="135"/>
+      <c r="AK25" s="136"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="129"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="96"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="135"/>
+      <c r="AJ26" s="135"/>
+      <c r="AK26" s="136"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="129"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="96"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="135"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="135"/>
+      <c r="AJ27" s="135"/>
+      <c r="AK27" s="136"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="129"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="96"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="135"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="135"/>
+      <c r="AJ28" s="135"/>
+      <c r="AK28" s="136"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="129"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="96"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="135"/>
+      <c r="AJ29" s="135"/>
+      <c r="AK29" s="136"/>
     </row>
     <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="153"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="103"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="103"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="103"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="104"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J28:AK28"/>
+    <mergeCell ref="J29:AK29"/>
+    <mergeCell ref="J30:AK30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J23:AK23"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -12516,77 +12736,6 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12603,111 +12752,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="69" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="70" customWidth="1"/>
-    <col min="3" max="4" width="37.625" style="70" customWidth="1"/>
-    <col min="5" max="16384" width="9.75" style="69"/>
+    <col min="1" max="1" width="5.5" style="66" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="67" customWidth="1"/>
+    <col min="3" max="4" width="37.625" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="9.75" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="46" customFormat="1" ht="12"/>
-    <row r="2" spans="1:11" s="47" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+    <row r="1" spans="1:11" s="43" customFormat="1" ht="12"/>
+    <row r="2" spans="1:11" s="44" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="1:11" s="44" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B3" s="47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+    <row r="4" spans="1:11" s="44" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:11" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="1:11" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="47" customFormat="1" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="14.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="52" t="s">
+    <row r="6" spans="1:11" s="44" customFormat="1" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="46.9" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="56" t="s">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="46.9" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" ht="14.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+    <row r="9" spans="1:11" s="52" customFormat="1" ht="14.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" ht="14.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
+    <row r="10" spans="1:11" s="52" customFormat="1" ht="14.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="15" thickBot="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="15" thickBot="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
     </row>
-    <row r="12" spans="1:11" s="68" customFormat="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="66"/>
+    <row r="12" spans="1:11" s="65" customFormat="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="63"/>
     </row>
-    <row r="13" spans="1:11" s="47" customFormat="1" ht="7.5" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+    <row r="13" spans="1:11" s="44" customFormat="1" ht="7.5" customHeight="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="1:11" s="47" customFormat="1" ht="21" customHeight="1">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="1:11" s="44" customFormat="1" ht="21" customHeight="1">
+      <c r="B14" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="67" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="67" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12725,11 +12874,11 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -12739,8 +12888,7 @@
     <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
     <col min="5" max="6" width="24.25" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.5" style="94" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="19.875" style="4" bestFit="1" customWidth="1"/>
@@ -12759,8 +12907,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -12788,8 +12936,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -12817,8 +12965,8 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -12844,8 +12992,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -12875,8 +13023,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -12900,8 +13048,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -12927,8 +13075,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -12956,8 +13104,8 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -12985,8 +13133,8 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -13028,10 +13176,10 @@
       <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="83" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="16" t="s">
@@ -13058,43 +13206,43 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" s="24" customFormat="1" ht="47.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="81">
-        <v>36526</v>
-      </c>
-      <c r="J11" s="82">
-        <v>45412</v>
-      </c>
-      <c r="K11" s="83" t="s">
+      <c r="I11" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="83" t="s">
+      <c r="M11" s="76" t="s">
         <v>77</v>
       </c>
     </row>
@@ -13111,22 +13259,22 @@
       <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="26">
-        <v>45413</v>
-      </c>
-      <c r="J12" s="76"/>
+      <c r="I12" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="87"/>
       <c r="K12" s="23" t="s">
         <v>27</v>
       </c>
@@ -13138,82 +13286,82 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="24" customFormat="1" ht="47.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77" t="s">
+      <c r="I13" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="87"/>
+      <c r="K13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="77" t="s">
+      <c r="M13" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="24" customFormat="1" ht="47.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="81">
-        <v>36526</v>
-      </c>
-      <c r="J14" s="82">
-        <v>45412</v>
-      </c>
-      <c r="K14" s="83" t="s">
+      <c r="I14" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="83" t="s">
+      <c r="M14" s="76" t="s">
         <v>84</v>
       </c>
     </row>
@@ -13230,22 +13378,22 @@
       <c r="D15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="26">
-        <v>45413</v>
-      </c>
-      <c r="J15" s="76"/>
+      <c r="I15" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="87"/>
       <c r="K15" s="23" t="s">
         <v>27</v>
       </c>
@@ -13256,317 +13404,317 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="39" customFormat="1" ht="47.25">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:26" s="38" customFormat="1" ht="47.25">
+      <c r="A16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77" t="s">
+      <c r="I16" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="87"/>
+      <c r="K16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77" t="s">
+      <c r="I17" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="87"/>
+      <c r="K17" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77" t="s">
+      <c r="I18" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="87"/>
+      <c r="K18" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="39" customFormat="1" ht="47.25">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="47.25">
+      <c r="A19" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77" t="s">
+      <c r="I19" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="87"/>
+      <c r="K19" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="77" t="s">
+      <c r="L19" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="77" t="s">
+      <c r="M19" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I20" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77" t="s">
+      <c r="I20" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="87"/>
+      <c r="K20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="77" t="s">
+      <c r="L20" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M20" s="77" t="s">
+      <c r="M20" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77" t="s">
+      <c r="I21" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="87"/>
+      <c r="K21" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="77" t="s">
+      <c r="M21" s="72" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77" t="s">
+      <c r="I22" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="77" t="s">
+      <c r="L22" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="77" t="s">
+      <c r="M22" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="80" t="s">
+      <c r="H23" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="81">
-        <v>36526</v>
-      </c>
-      <c r="J23" s="82">
-        <v>45412</v>
-      </c>
-      <c r="K23" s="83" t="s">
+      <c r="I23" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="83" t="s">
+      <c r="L23" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="83" t="s">
+      <c r="M23" s="76" t="s">
         <v>88</v>
       </c>
     </row>
@@ -13583,22 +13731,22 @@
       <c r="D24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="26">
-        <v>45413</v>
-      </c>
-      <c r="J24" s="76"/>
+      <c r="I24" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="87"/>
       <c r="K24" s="23" t="s">
         <v>27</v>
       </c>
@@ -13610,82 +13758,82 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="72" t="s">
+      <c r="H25" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77" t="s">
+      <c r="I25" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="87"/>
+      <c r="K25" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="77" t="s">
+      <c r="L25" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="81">
-        <v>36526</v>
-      </c>
-      <c r="J26" s="82">
-        <v>45412</v>
-      </c>
-      <c r="K26" s="83" t="s">
+      <c r="I26" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="83" t="s">
+      <c r="L26" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="83" t="s">
+      <c r="M26" s="76" t="s">
         <v>92</v>
       </c>
     </row>
@@ -13702,22 +13850,22 @@
       <c r="D27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="26">
-        <v>45413</v>
-      </c>
-      <c r="J27" s="76"/>
+      <c r="I27" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="87"/>
       <c r="K27" s="23" t="s">
         <v>27</v>
       </c>
@@ -13729,1385 +13877,1423 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="72" t="s">
+      <c r="H28" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77" t="s">
+      <c r="I28" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="87"/>
+      <c r="K28" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="77" t="s">
+      <c r="L28" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="77" t="s">
+      <c r="M28" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77" t="s">
+      <c r="I29" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="87"/>
+      <c r="K29" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="77" t="s">
+      <c r="M29" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="72" t="s">
+      <c r="G30" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77" t="s">
+      <c r="I30" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J30" s="87"/>
+      <c r="K30" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="77" t="s">
+      <c r="M30" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="74" t="s">
+      <c r="F31" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77" t="s">
+      <c r="I31" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="87"/>
+      <c r="K31" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="77" t="s">
+      <c r="L31" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="77" t="s">
+      <c r="M31" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="72" t="s">
+      <c r="G32" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77" t="s">
+      <c r="I32" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J32" s="87"/>
+      <c r="K32" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L32" s="77" t="s">
+      <c r="L32" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="77" t="s">
+      <c r="M32" s="72" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A33" s="73" t="s">
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A33" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="74" t="s">
+      <c r="F33" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77" t="s">
+      <c r="I33" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="87"/>
+      <c r="K33" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="77" t="s">
+      <c r="L33" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="77" t="s">
+      <c r="M33" s="72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A34" s="73" t="s">
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A34" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="72" t="s">
+      <c r="G34" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77" t="s">
+      <c r="I34" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="87"/>
+      <c r="K34" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="77" t="s">
+      <c r="L34" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="77" t="s">
+      <c r="M34" s="72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A35" s="73" t="s">
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A35" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="74" t="s">
+      <c r="F35" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77" t="s">
+      <c r="I35" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="87"/>
+      <c r="K35" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L35" s="77" t="s">
+      <c r="L35" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="77" t="s">
+      <c r="M35" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A36" s="73" t="s">
+    <row r="36" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A36" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="74" t="s">
+      <c r="E36" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="74" t="s">
+      <c r="F36" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="72" t="s">
+      <c r="G36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77" t="s">
+      <c r="I36" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="87"/>
+      <c r="K36" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="77" t="s">
+      <c r="L36" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M36" s="77" t="s">
+      <c r="M36" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A37" s="73" t="s">
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A37" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="74" t="s">
+      <c r="F37" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J37" s="76"/>
-      <c r="K37" s="77" t="s">
+      <c r="I37" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="87"/>
+      <c r="K37" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="L37" s="77" t="s">
+      <c r="L37" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="77" t="s">
+      <c r="M37" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A38" s="73" t="s">
+    <row r="38" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="74" t="s">
+      <c r="E38" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="74" t="s">
+      <c r="F38" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J38" s="76"/>
-      <c r="K38" s="77" t="s">
+      <c r="I38" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="87"/>
+      <c r="K38" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="77" t="s">
+      <c r="L38" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="M38" s="77" t="s">
+      <c r="M38" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A39" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="43">
-        <v>36526</v>
-      </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45" t="s">
+      <c r="I39" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A40" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="L39" s="45" t="s">
+      <c r="L40" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="45" t="s">
+      <c r="M40" s="72" t="s">
         <v>169</v>
       </c>
+      <c r="N40" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="40" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A40" s="40" t="s">
+    <row r="41" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A41" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F41" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G41" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H41" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I40" s="43">
-        <v>36526</v>
-      </c>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45" t="s">
+      <c r="I41" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="L40" s="45" t="s">
+      <c r="L41" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="M40" s="45" t="s">
+      <c r="M41" s="42" t="s">
         <v>169</v>
       </c>
+      <c r="N41" s="24" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="41" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A41" s="73" t="s">
+    <row r="42" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A42" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="73" t="s">
+      <c r="B42" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C42" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="73" t="s">
+      <c r="D42" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="74" t="s">
+      <c r="E42" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="74" t="s">
+      <c r="F42" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G42" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H42" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77" t="s">
+      <c r="I42" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="87"/>
+      <c r="K42" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L41" s="77" t="s">
+      <c r="L42" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="M41" s="77" t="s">
+      <c r="M42" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A42" s="73" t="s">
+    <row r="43" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A43" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B43" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C43" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="73" t="s">
+      <c r="D43" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E43" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="74" t="s">
+      <c r="F43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="72" t="s">
+      <c r="G43" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H43" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77" t="s">
+      <c r="I43" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="87"/>
+      <c r="K43" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="77" t="s">
+      <c r="L43" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="77" t="s">
+      <c r="M43" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A43" s="73" t="s">
+    <row r="44" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A44" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B44" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C44" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D44" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E44" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F44" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G44" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="H44" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I43" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J43" s="76"/>
-      <c r="K43" s="77" t="s">
+      <c r="I44" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="87"/>
+      <c r="K44" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="L43" s="77" t="s">
+      <c r="L44" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="M43" s="77" t="s">
+      <c r="M44" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A44" s="73" t="s">
+    <row r="45" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A45" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B45" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C45" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D45" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E45" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F45" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="72" t="s">
+      <c r="G45" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="72" t="s">
+      <c r="H45" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I44" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77" t="s">
+      <c r="I45" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="87"/>
+      <c r="K45" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="L44" s="77" t="s">
+      <c r="L45" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="M44" s="77" t="s">
+      <c r="M45" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A45" s="73" t="s">
+    <row r="46" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A46" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B46" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C46" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D46" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="74" t="s">
+      <c r="E46" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F46" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G46" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="72" t="s">
+      <c r="H46" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J45" s="76"/>
-      <c r="K45" s="77" t="s">
+      <c r="I46" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="87"/>
+      <c r="K46" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="77" t="s">
+      <c r="L46" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M45" s="77" t="s">
+      <c r="M46" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A46" s="73" t="s">
+    <row r="47" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A47" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B47" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C47" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D47" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E47" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="72" t="s">
+      <c r="G47" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H46" s="72" t="s">
+      <c r="H47" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J46" s="76"/>
-      <c r="K46" s="77" t="s">
+      <c r="I47" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J47" s="87"/>
+      <c r="K47" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L46" s="77" t="s">
+      <c r="L47" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="77" t="s">
+      <c r="M47" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A47" s="73" t="s">
+    <row r="48" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A48" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B48" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C48" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="D48" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E48" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="74" t="s">
+      <c r="F48" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G48" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="72" t="s">
+      <c r="H48" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I47" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="77" t="s">
+      <c r="I48" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="87"/>
+      <c r="K48" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="77" t="s">
+      <c r="L48" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M47" s="77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="24" customFormat="1" ht="47.25">
-      <c r="A48" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="G48" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="H48" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J48" s="76"/>
-      <c r="K48" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="L48" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="M48" s="77" t="s">
+      <c r="M48" s="72" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A49" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="73" t="s">
+      <c r="A49" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="73" t="s">
+      <c r="C49" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J49" s="76"/>
-      <c r="K49" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="L49" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" s="77" t="s">
-        <v>29</v>
+      <c r="E49" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="87"/>
+      <c r="K49" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" s="72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="I50" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J50" s="76"/>
-      <c r="K50" s="77" t="s">
+      <c r="G50" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="87"/>
+      <c r="K50" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L50" s="77" t="s">
+      <c r="L50" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="M50" s="77" t="s">
+      <c r="M50" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A51" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="73" t="s">
+      <c r="A51" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="73" t="s">
+      <c r="B51" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J51" s="76"/>
-      <c r="K51" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="L51" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="77" t="s">
-        <v>123</v>
+      <c r="D51" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="87"/>
+      <c r="K51" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="M51" s="72" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F52" s="74" t="s">
+      <c r="E52" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="G52" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77" t="s">
+      <c r="F52" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="87"/>
+      <c r="K52" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="77" t="s">
+      <c r="L52" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="M52" s="77" t="s">
-        <v>29</v>
+      <c r="M52" s="72" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="E53" s="71" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="I53" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M53" s="23" t="s">
-        <v>146</v>
+        <v>120</v>
+      </c>
+      <c r="G53" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="87"/>
+      <c r="K53" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="F54" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="G54" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="I54" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J54" s="76"/>
+      <c r="E54" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" s="86"/>
       <c r="K54" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L54" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M54" s="77" t="s">
+      <c r="M54" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="70" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="I55" s="75">
-        <v>45413</v>
-      </c>
-      <c r="J55" s="22"/>
+      <c r="G55" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="87"/>
       <c r="K55" s="23" t="s">
         <v>151</v>
       </c>
       <c r="L55" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M55" s="23" t="s">
-        <v>154</v>
+      <c r="M55" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="73" t="s">
+      <c r="D56" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J56" s="76"/>
+      <c r="E56" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="86"/>
       <c r="K56" s="23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="M56" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="M56" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="73" t="s">
+      <c r="B57" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="74" t="s">
+      <c r="E57" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="F57" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J57" s="76"/>
+      <c r="G57" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" s="87"/>
       <c r="K57" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M57" s="77" t="s">
-        <v>146</v>
+        <v>157</v>
+      </c>
+      <c r="M57" s="72" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A58" s="73" t="s">
+      <c r="A58" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="C58" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="75">
-        <v>45413</v>
-      </c>
-      <c r="J58" s="76"/>
+      <c r="E58" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="87"/>
       <c r="K58" s="23" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L58" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M58" s="77" t="s">
-        <v>154</v>
+      <c r="M58" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="73" t="s">
+      <c r="B59" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="H59" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="I59" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J59" s="76"/>
+      <c r="E59" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="J59" s="87"/>
       <c r="K59" s="23" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="M59" s="77" t="s">
-        <v>133</v>
+        <v>145</v>
+      </c>
+      <c r="M59" s="72" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A60" s="73" t="s">
+      <c r="A60" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="I60" s="75">
-        <v>36526</v>
-      </c>
-      <c r="J60" s="76"/>
+      <c r="E60" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="87"/>
       <c r="K60" s="23" t="s">
         <v>130</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="M60" s="77" t="s">
-        <v>29</v>
+        <v>132</v>
+      </c>
+      <c r="M60" s="72" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="73" t="s">
+      <c r="C61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="I61" s="75">
-        <v>45413</v>
-      </c>
-      <c r="J61" s="76"/>
+      <c r="G61" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="87"/>
       <c r="K61" s="23" t="s">
         <v>130</v>
       </c>
       <c r="L61" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M61" s="77" t="s">
+      <c r="M61" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="73" t="s">
+      <c r="C62" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62" s="75">
-        <v>45413</v>
-      </c>
-      <c r="J62" s="76"/>
+      <c r="E62" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="87"/>
       <c r="K62" s="23" t="s">
         <v>130</v>
       </c>
       <c r="L62" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="M62" s="77" t="s">
+      <c r="M62" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="24" customFormat="1" ht="15.75">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="39"/>
+    <row r="63" spans="1:14" s="24" customFormat="1" ht="47.25">
+      <c r="A63" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="87"/>
+      <c r="K63" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M63" s="72" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="1:14" s="24" customFormat="1" ht="15.75">
       <c r="A64" s="19"/>
@@ -15118,55 +15304,42 @@
       <c r="F64" s="22"/>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="22"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
+      <c r="N64" s="38"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
+    <row r="65" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -15181,45 +15354,21 @@
       <c r="Y66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A67" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="82"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
@@ -15232,22 +15381,60 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" s="24" customFormat="1" ht="15.75">
       <c r="A69" s="19"/>
@@ -15258,8 +15445,8 @@
       <c r="F69" s="22"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="22"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
@@ -15273,8 +15460,8 @@
       <c r="F70" s="22"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="22"/>
+      <c r="I70" s="86"/>
+      <c r="J70" s="86"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
@@ -15288,8 +15475,8 @@
       <c r="F71" s="22"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="22"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
@@ -15303,56 +15490,41 @@
       <c r="F72" s="22"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="22"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
+    <row r="73" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="7"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
@@ -15365,20 +15537,23 @@
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="A75" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="33"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
@@ -15394,9 +15569,7 @@
       <c r="Y75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="13" t="s">
-        <v>36</v>
-      </c>
+      <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -15404,8 +15577,8 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="80"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -15423,8 +15596,8 @@
       <c r="Y76" s="7"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>9</v>
+      <c r="A77" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -15433,8 +15606,8 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="80"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -15452,39 +15625,19 @@
       <c r="Y77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A78" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
@@ -15496,58 +15649,81 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
     </row>
-    <row r="79" spans="1:26" s="7" customFormat="1" ht="15.75">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
+    <row r="80" spans="1:26" s="7" customFormat="1" ht="15.75">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="28"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="28"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -15559,12 +15735,11 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="7"/>
+      <c r="A82" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -15572,8 +15747,8 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="80"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -15591,9 +15766,7 @@
       <c r="Y82" s="7"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -15601,8 +15774,8 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -15620,33 +15793,20 @@
       <c r="Y83" s="7"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="A84" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
@@ -15661,16 +15821,34 @@
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="93" t="s">
+        <v>23</v>
+      </c>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
@@ -15691,10 +15869,10 @@
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
       <c r="E86" s="21"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="91"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
@@ -15709,16 +15887,16 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+    <row r="87" spans="1:25" ht="15.75">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="91"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -15734,18 +15912,15 @@
       <c r="Y87" s="7"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="91"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
@@ -15761,9 +15936,7 @@
       <c r="Y88" s="7"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -15771,8 +15944,8 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -15790,8 +15963,8 @@
       <c r="Y89" s="7"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>9</v>
+      <c r="A90" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -15800,8 +15973,8 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -15819,32 +15992,18 @@
       <c r="Y90" s="7"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="A91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="80"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -15861,56 +16020,72 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" s="7" customFormat="1" ht="15.75">
-      <c r="A92" s="12"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="12"/>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A92" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
+    <row r="93" spans="1:25" s="7" customFormat="1" ht="15.75">
+      <c r="A93" s="12"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="80"/>
+      <c r="J94" s="80"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -15927,8 +16102,37 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
     </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A95" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="80"/>
+      <c r="J95" s="80"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A10:Z62"/>
+  <autoFilter ref="A10:Z63"/>
   <phoneticPr fontId="36"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目次!A1" display="目次"/>
@@ -15939,7 +16143,7 @@
     <oddFooter>&amp;L&amp;A&amp;C&amp;P／&amp;R&amp;F</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E11:M20 E23:M32 E21:F22 I21:M22 E35:M36 E44:M46 E43:F43 I43:M43 E59:M59 E51:F51 I51:M51 E63:M64 E33:F34 I33:M34 E41:M42 E37:F37 I37:M37 E48:M50 E47:F47 I47:M47 E61:F62 I61:M62 E52:M52 E53:F58 E60:J60 M60 E38:M38 E39:F40" numberStoredAsText="1"/>
+    <ignoredError sqref="E11:H20 E23:H32 E21:F22 K21:M22 E35:H36 E45:H47 E44:F44 K44:M44 E60:H60 E52:F52 K52:M52 E64:H65 E33:F34 K33:M34 E42:H43 E37:F37 K37:M37 E49:H51 E48:F48 K48:M48 E62:F63 K62:M63 E53:H53 E54:F59 E61:H61 M61 E38:H38 E41:F41 E39:F39 E40:F40 K11:M20 K23:M32 K35:M36 K45:M47 K60:M60 K64:M65 K42:M43 K49:M51 K53:M53 K38:M38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20101～20200\E_本稼動_20172【会計】消費税振替仕訳エラー\10_構成管理\20_チェックイン\03395\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\会社間振替\セットアップ文書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="7830" windowWidth="14715" windowHeight="8820" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="408" yWindow="7836" windowWidth="14712" windowHeight="8820" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="196">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -1031,7 +1031,7 @@
     <rPh sb="10" eb="11">
       <t xml:space="preserve">シ </t>
     </rPh>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>プライマリ・セグメント値: 自</t>
@@ -1065,11 +1065,11 @@
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>買掛管理</t>
@@ -1079,7 +1079,7 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>仕入請求書</t>
@@ -1089,30 +1089,30 @@
     <rPh sb="2" eb="5">
       <t>セイキュウショ</t>
     </rPh>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>支払</t>
     <rPh sb="0" eb="2">
       <t>シハライ</t>
     </rPh>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>IFRS-SOB</t>
@@ -1288,7 +1288,7 @@
   </si>
   <si>
     <t>002</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>002</t>
@@ -1304,14 +1304,14 @@
   </si>
   <si>
     <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="56"/>
+    <phoneticPr fontId="55"/>
   </si>
   <si>
     <t>メニュー</t>
@@ -1399,7 +1399,7 @@
     <rPh sb="23" eb="25">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="56"/>
+    <phoneticPr fontId="55"/>
   </si>
   <si>
     <t>タスク一覧からの選択</t>
@@ -1443,7 +1443,7 @@
     <rPh sb="45" eb="47">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="59"/>
+    <phoneticPr fontId="58"/>
   </si>
   <si>
     <t>画面左の機能領域から該当のタスク種別を選択し、画面右に表示されたタスク名をクリックします。</t>
@@ -1513,18 +1513,18 @@
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001-1011-39215-3921500000-000000000-000000-0-0</t>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
@@ -1536,39 +1536,39 @@
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-2142-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-2142-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
@@ -1576,27 +1576,27 @@
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-2142-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003-9090-39215-3921500000-000000000-000000-0-0</t>
@@ -1608,19 +1608,19 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
@@ -1632,19 +1632,19 @@
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003-9090-39215-3921500000-000000000-000000-0-0</t>
@@ -1656,19 +1656,19 @@
   </si>
   <si>
     <t>会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>消費税会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>消費税会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>SALES-LE</t>
@@ -1676,15 +1676,15 @@
   </si>
   <si>
     <t>経費精算計上会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>経費精算計上会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>SALES-SOB</t>
@@ -1696,31 +1696,31 @@
   </si>
   <si>
     <t>001</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>会社間振替</t>
     <phoneticPr fontId="47"/>
   </si>
   <si>
-    <t>会社間振替</t>
-    <phoneticPr fontId="48"/>
-  </si>
-  <si>
     <t>経費精算支払会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>経費精算支払会社間振替</t>
     <phoneticPr fontId="47"/>
   </si>
   <si>
-    <t>経費精算支払会社間振替</t>
-    <phoneticPr fontId="48"/>
-  </si>
-  <si>
     <t>銀行手数料仮勘定会社間振替</t>
-    <phoneticPr fontId="48"/>
+    <phoneticPr fontId="47"/>
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
@@ -1735,7 +1735,7 @@
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>EBS_売掛管理</t>
@@ -1751,7 +1751,7 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>003</t>
@@ -1771,6 +1771,86 @@
   </si>
   <si>
     <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>EBS_売掛管理</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>売掛/未収金入金</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002-9090-39215-3921500000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>002-9090-39215-3921500000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>EBS_売掛管理</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>002-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>売掛/未収金入金</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002</t>
     <phoneticPr fontId="36"/>
   </si>
   <si>
@@ -1793,87 +1873,7 @@
       </rPr>
       <t>-9090-39220-3922000000-000000000-000000-0-0</t>
     </r>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39215-3921500000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>EBS_売掛管理</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>売掛/未収金入金</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>999</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>002-9090-39215-3921500000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>002-9090-39215-3921500000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>EBS_売掛管理</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>999-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>002-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>売掛/未収金入金</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="36"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <r>
@@ -1895,29 +1895,7 @@
       </rPr>
       <t>-9090-39220-3922000000-000000000-000000-0-0</t>
     </r>
-    <phoneticPr fontId="47"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo ui"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Meiryo ui"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-9090-39220-3922000000-000000000-000000-0-0</t>
-    </r>
-    <phoneticPr fontId="47"/>
+    <phoneticPr fontId="46"/>
   </si>
   <si>
     <t>E_本稼動_20102対応　20102直営店対応
@@ -2111,6 +2089,78 @@
     <rPh sb="10" eb="12">
       <t>ムコウ</t>
     </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>SCSK宇田川</t>
+    <rPh sb="4" eb="7">
+      <t>ウダガワ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_20246　STEP４ GL部門入力対応
+ERP部門入力からの会社間振替対応</t>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="42">
+      <t>カイシャカンフリカエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>ERP_GL部門入力</t>
+    <rPh sb="6" eb="10">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>振替伝票</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
     <phoneticPr fontId="36"/>
   </si>
 </sst>
@@ -2381,13 +2431,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF66FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2523,6 +2566,13 @@
       <sz val="6"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -3195,280 +3245,457 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="61"/>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61"/>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="57" fillId="15" borderId="26" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="15" borderId="27" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="57" fillId="15" borderId="28" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="29" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="14" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="29" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="4" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="14" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="30" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="15" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="16" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="62" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="4" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="61" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="4" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="0" borderId="4" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="61" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="18" borderId="0" xfId="63" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="58" fillId="15" borderId="26" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="15" borderId="27" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="58" fillId="15" borderId="28" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="29" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="4" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="14" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="29" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="4" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="14" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="30" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="15" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="16" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="0" xfId="64" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="62" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="62" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="25" xfId="61" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="25" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="19" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="16" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="15" borderId="4" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="61" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="50" fillId="17" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="16" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="59" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3479,218 +3706,8 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -11466,1214 +11483,1241 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.625" style="1"/>
+    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12" thickBot="1"/>
-    <row r="2" spans="1:37" ht="12" thickBot="1">
-      <c r="A2" s="112" t="s">
+    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
+    <row r="2" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="112" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="160" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="161"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="96"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="115">
+      <c r="A3" s="145">
         <v>44865</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="142" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="162" t="s">
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
-      <c r="AK3" s="164"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="99"/>
     </row>
     <row r="4" spans="1:37" ht="48" customHeight="1">
-      <c r="A4" s="118">
+      <c r="A4" s="143">
         <v>45027</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="131" t="s">
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="165" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="166"/>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="167"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="102"/>
     </row>
-    <row r="5" spans="1:37" ht="82.9" customHeight="1">
-      <c r="A5" s="118">
+    <row r="5" spans="1:37" ht="82.95" customHeight="1">
+      <c r="A5" s="143">
         <v>45355</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="131" t="s">
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="168" t="s">
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="169"/>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="169"/>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="170"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="105"/>
     </row>
     <row r="6" spans="1:37" s="77" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A6" s="126">
+      <c r="A6" s="153">
         <v>45485</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="132" t="s">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="145" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="147"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="109"/>
+      <c r="AK6" s="110"/>
     </row>
     <row r="7" spans="1:37" ht="24" customHeight="1">
-      <c r="A7" s="118">
+      <c r="A7" s="143">
         <v>45538</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="131" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="111" t="s">
         <v>171</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="149"/>
-      <c r="AJ7" s="149"/>
-      <c r="AK7" s="150"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="113"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="129">
+      <c r="A8" s="143">
         <v>45545</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="151" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="153"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="113"/>
     </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="155"/>
-      <c r="AF9" s="155"/>
-      <c r="AG9" s="155"/>
-      <c r="AH9" s="155"/>
-      <c r="AI9" s="155"/>
-      <c r="AJ9" s="155"/>
-      <c r="AK9" s="156"/>
+    <row r="9" spans="1:37" ht="35.4" customHeight="1">
+      <c r="A9" s="150">
+        <v>45615</v>
+      </c>
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="115"/>
+      <c r="AF9" s="115"/>
+      <c r="AG9" s="115"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="115"/>
+      <c r="AJ9" s="115"/>
+      <c r="AK9" s="116"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="130"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="159"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="118"/>
+      <c r="AE10" s="118"/>
+      <c r="AF10" s="118"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="119"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="106"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="135"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="136"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="107"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="106"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="135"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="135"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="135"/>
-      <c r="AK12" s="136"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="106"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="107"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="135"/>
-      <c r="AK13" s="136"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="107"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="136"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
+      <c r="AI14" s="106"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="107"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="106"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="135"/>
-      <c r="AJ15" s="135"/>
-      <c r="AK15" s="136"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
+      <c r="AI15" s="106"/>
+      <c r="AJ15" s="106"/>
+      <c r="AK15" s="107"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="135"/>
-      <c r="AF16" s="135"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="136"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="107"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="135"/>
-      <c r="AF17" s="135"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="135"/>
-      <c r="AJ17" s="135"/>
-      <c r="AK17" s="136"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="107"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="135"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="135"/>
-      <c r="AJ18" s="135"/>
-      <c r="AK18" s="136"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="106"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="107"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="106"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="135"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="135"/>
-      <c r="AK19" s="136"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
+      <c r="AI19" s="106"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="107"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="135"/>
-      <c r="AF20" s="135"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="135"/>
-      <c r="AJ20" s="135"/>
-      <c r="AK20" s="136"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="107"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="135"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="135"/>
-      <c r="AJ21" s="135"/>
-      <c r="AK21" s="136"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="107"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="135"/>
-      <c r="AJ22" s="135"/>
-      <c r="AK22" s="136"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="106"/>
+      <c r="AK22" s="107"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="135"/>
-      <c r="AH23" s="135"/>
-      <c r="AI23" s="135"/>
-      <c r="AJ23" s="135"/>
-      <c r="AK23" s="136"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+      <c r="AK23" s="107"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="106"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="135"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="135"/>
-      <c r="AJ24" s="135"/>
-      <c r="AK24" s="136"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="107"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="135"/>
-      <c r="AJ25" s="135"/>
-      <c r="AK25" s="136"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+      <c r="AJ25" s="106"/>
+      <c r="AK25" s="107"/>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="135"/>
-      <c r="AJ26" s="135"/>
-      <c r="AK26" s="136"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+      <c r="AK26" s="107"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="106"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="135"/>
-      <c r="AH27" s="135"/>
-      <c r="AI27" s="135"/>
-      <c r="AJ27" s="135"/>
-      <c r="AK27" s="136"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="107"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="135"/>
-      <c r="AJ28" s="135"/>
-      <c r="AK28" s="136"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
+      <c r="AI28" s="106"/>
+      <c r="AJ28" s="106"/>
+      <c r="AK28" s="107"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="106"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="135"/>
-      <c r="AF29" s="135"/>
-      <c r="AG29" s="135"/>
-      <c r="AH29" s="135"/>
-      <c r="AI29" s="135"/>
-      <c r="AJ29" s="135"/>
-      <c r="AK29" s="136"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="107"/>
     </row>
-    <row r="30" spans="1:37" ht="12" thickBot="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="138"/>
+    <row r="30" spans="1:37" ht="11.4" thickBot="1">
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="120"/>
+      <c r="X30" s="120"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="120"/>
+      <c r="AA30" s="120"/>
+      <c r="AB30" s="120"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="120"/>
+      <c r="AE30" s="120"/>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+      <c r="AJ30" s="120"/>
+      <c r="AK30" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="J28:AK28"/>
     <mergeCell ref="J29:AK29"/>
     <mergeCell ref="J30:AK30"/>
@@ -12690,52 +12734,31 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J24:AK24"/>
+    <mergeCell ref="J25:AK25"/>
+    <mergeCell ref="J26:AK26"/>
+    <mergeCell ref="J27:AK27"/>
+    <mergeCell ref="J18:AK18"/>
+    <mergeCell ref="J19:AK19"/>
+    <mergeCell ref="J20:AK20"/>
+    <mergeCell ref="J21:AK21"/>
+    <mergeCell ref="J22:AK22"/>
+    <mergeCell ref="J13:AK13"/>
+    <mergeCell ref="J14:AK14"/>
+    <mergeCell ref="J15:AK15"/>
+    <mergeCell ref="J16:AK16"/>
+    <mergeCell ref="J17:AK17"/>
+    <mergeCell ref="J12:AK12"/>
+    <mergeCell ref="J6:AK6"/>
+    <mergeCell ref="J7:AK7"/>
+    <mergeCell ref="J8:AK8"/>
+    <mergeCell ref="J9:AK9"/>
+    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J2:AK2"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="J4:AK4"/>
+    <mergeCell ref="J5:AK5"/>
+    <mergeCell ref="J11:AK11"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12750,15 +12773,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="66" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="67" customWidth="1"/>
-    <col min="3" max="4" width="37.625" style="67" customWidth="1"/>
-    <col min="5" max="16384" width="9.75" style="66"/>
+    <col min="1" max="1" width="5.44140625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="67" customWidth="1"/>
+    <col min="3" max="4" width="37.6640625" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="9.77734375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="12"/>
+    <row r="1" spans="1:11" s="43" customFormat="1" ht="11.4"/>
     <row r="2" spans="1:11" s="44" customFormat="1" ht="7.5" customHeight="1">
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -12779,8 +12802,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.25">
+    <row r="6" spans="1:11" s="44" customFormat="1" thickBot="1"/>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.4">
       <c r="A7" s="44"/>
       <c r="B7" s="49" t="s">
         <v>63</v>
@@ -12792,7 +12815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="46.9" customHeight="1">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="46.95" customHeight="1">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>66</v>
@@ -12804,19 +12827,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1" ht="14.25">
+    <row r="9" spans="1:11" s="52" customFormat="1" ht="14.4">
       <c r="A9" s="44"/>
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
       <c r="D9" s="55"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1" ht="14.25">
+    <row r="10" spans="1:11" s="52" customFormat="1" ht="14.4">
       <c r="A10" s="44"/>
       <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="15" thickBot="1">
+    <row r="11" spans="1:11" s="52" customFormat="1" thickBot="1">
       <c r="A11" s="44"/>
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
@@ -12874,26 +12897,26 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="10" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="25.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="24.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.5" style="94" customWidth="1"/>
-    <col min="11" max="11" width="19.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="7.875" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="12.5" style="4"/>
+    <col min="1" max="1" width="34.6640625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="25.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="24.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.33203125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.44140625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="7.88671875" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="12.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -13122,7 +13145,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:26" ht="19.2" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -13205,7 +13228,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" ht="47.25">
+    <row r="11" spans="1:26" s="24" customFormat="1" ht="45">
       <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
@@ -13231,10 +13254,10 @@
         <v>76</v>
       </c>
       <c r="I11" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="85" t="s">
         <v>177</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>178</v>
       </c>
       <c r="K11" s="76" t="s">
         <v>27</v>
@@ -13246,7 +13269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" ht="47.25">
+    <row r="12" spans="1:26" s="24" customFormat="1" ht="45">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
@@ -13272,7 +13295,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J12" s="87"/>
       <c r="K12" s="23" t="s">
@@ -13285,7 +13308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" ht="47.25">
+    <row r="13" spans="1:26" s="24" customFormat="1" ht="45">
       <c r="A13" s="70" t="s">
         <v>10</v>
       </c>
@@ -13311,7 +13334,7 @@
         <v>59</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J13" s="87"/>
       <c r="K13" s="72" t="s">
@@ -13324,7 +13347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="24" customFormat="1" ht="47.25">
+    <row r="14" spans="1:26" s="24" customFormat="1" ht="45">
       <c r="A14" s="73" t="s">
         <v>10</v>
       </c>
@@ -13350,10 +13373,10 @@
         <v>83</v>
       </c>
       <c r="I14" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" s="85" t="s">
         <v>177</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>178</v>
       </c>
       <c r="K14" s="76" t="s">
         <v>27</v>
@@ -13365,7 +13388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="24" customFormat="1" ht="47.25">
+    <row r="15" spans="1:26" s="24" customFormat="1" ht="45">
       <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
@@ -13391,7 +13414,7 @@
         <v>86</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="87"/>
       <c r="K15" s="23" t="s">
@@ -13404,7 +13427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="38" customFormat="1" ht="47.25">
+    <row r="16" spans="1:26" s="38" customFormat="1" ht="45">
       <c r="A16" s="70" t="s">
         <v>10</v>
       </c>
@@ -13430,7 +13453,7 @@
         <v>58</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J16" s="87"/>
       <c r="K16" s="72" t="s">
@@ -13443,7 +13466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A17" s="70" t="s">
         <v>10</v>
       </c>
@@ -13462,14 +13485,14 @@
       <c r="F17" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J17" s="87"/>
       <c r="K17" s="72" t="s">
@@ -13482,7 +13505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A18" s="70" t="s">
         <v>10</v>
       </c>
@@ -13501,14 +13524,14 @@
       <c r="F18" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="69" t="s">
-        <v>139</v>
+      <c r="G18" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J18" s="87"/>
       <c r="K18" s="72" t="s">
@@ -13521,7 +13544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1" ht="47.25">
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="45">
       <c r="A19" s="70" t="s">
         <v>10</v>
       </c>
@@ -13547,7 +13570,7 @@
         <v>103</v>
       </c>
       <c r="I19" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J19" s="87"/>
       <c r="K19" s="72" t="s">
@@ -13560,7 +13583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A20" s="70" t="s">
         <v>10</v>
       </c>
@@ -13586,7 +13609,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="87"/>
       <c r="K20" s="72" t="s">
@@ -13599,7 +13622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="21" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A21" s="70" t="s">
         <v>10</v>
       </c>
@@ -13619,13 +13642,13 @@
         <v>95</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="87"/>
       <c r="K21" s="72" t="s">
@@ -13638,7 +13661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="22" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A22" s="70" t="s">
         <v>10</v>
       </c>
@@ -13658,13 +13681,13 @@
         <v>101</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J22" s="87"/>
       <c r="K22" s="72" t="s">
@@ -13677,7 +13700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A23" s="73" t="s">
         <v>10</v>
       </c>
@@ -13703,10 +13726,10 @@
         <v>76</v>
       </c>
       <c r="I23" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="85" t="s">
         <v>177</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>178</v>
       </c>
       <c r="K23" s="76" t="s">
         <v>27</v>
@@ -13718,7 +13741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="24" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A24" s="19" t="s">
         <v>10</v>
       </c>
@@ -13744,7 +13767,7 @@
         <v>89</v>
       </c>
       <c r="I24" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J24" s="87"/>
       <c r="K24" s="23" t="s">
@@ -13757,7 +13780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A25" s="70" t="s">
         <v>10</v>
       </c>
@@ -13783,7 +13806,7 @@
         <v>59</v>
       </c>
       <c r="I25" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J25" s="87"/>
       <c r="K25" s="72" t="s">
@@ -13796,7 +13819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="26" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A26" s="73" t="s">
         <v>10</v>
       </c>
@@ -13822,10 +13845,10 @@
         <v>91</v>
       </c>
       <c r="I26" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" s="85" t="s">
         <v>177</v>
-      </c>
-      <c r="J26" s="85" t="s">
-        <v>178</v>
       </c>
       <c r="K26" s="76" t="s">
         <v>27</v>
@@ -13837,7 +13860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="27" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
@@ -13863,7 +13886,7 @@
         <v>94</v>
       </c>
       <c r="I27" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J27" s="87"/>
       <c r="K27" s="23" t="s">
@@ -13876,7 +13899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="28" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A28" s="70" t="s">
         <v>10</v>
       </c>
@@ -13902,7 +13925,7 @@
         <v>58</v>
       </c>
       <c r="I28" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J28" s="87"/>
       <c r="K28" s="72" t="s">
@@ -13915,7 +13938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="29" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A29" s="70" t="s">
         <v>10</v>
       </c>
@@ -13941,7 +13964,7 @@
         <v>60</v>
       </c>
       <c r="I29" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J29" s="87"/>
       <c r="K29" s="72" t="s">
@@ -13954,7 +13977,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="30" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A30" s="70" t="s">
         <v>10</v>
       </c>
@@ -13973,14 +13996,14 @@
       <c r="F30" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="69" t="s">
-        <v>139</v>
+      <c r="G30" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J30" s="87"/>
       <c r="K30" s="72" t="s">
@@ -13993,7 +14016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="31" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A31" s="70" t="s">
         <v>10</v>
       </c>
@@ -14019,7 +14042,7 @@
         <v>103</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J31" s="87"/>
       <c r="K31" s="72" t="s">
@@ -14032,7 +14055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" ht="47.25">
+    <row r="32" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A32" s="70" t="s">
         <v>10</v>
       </c>
@@ -14058,7 +14081,7 @@
         <v>97</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" s="87"/>
       <c r="K32" s="72" t="s">
@@ -14071,7 +14094,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A33" s="70" t="s">
         <v>10</v>
       </c>
@@ -14091,13 +14114,13 @@
         <v>95</v>
       </c>
       <c r="G33" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J33" s="87"/>
       <c r="K33" s="72" t="s">
@@ -14110,7 +14133,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A34" s="70" t="s">
         <v>10</v>
       </c>
@@ -14130,13 +14153,13 @@
         <v>95</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I34" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" s="87"/>
       <c r="K34" s="72" t="s">
@@ -14149,7 +14172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A35" s="70" t="s">
         <v>47</v>
       </c>
@@ -14175,7 +14198,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J35" s="87"/>
       <c r="K35" s="72" t="s">
@@ -14188,7 +14211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="36" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A36" s="70" t="s">
         <v>10</v>
       </c>
@@ -14214,7 +14237,7 @@
         <v>58</v>
       </c>
       <c r="I36" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J36" s="87"/>
       <c r="K36" s="72" t="s">
@@ -14227,7 +14250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A37" s="70" t="s">
         <v>47</v>
       </c>
@@ -14247,13 +14270,13 @@
         <v>126</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I37" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J37" s="87"/>
       <c r="K37" s="72" t="s">
@@ -14266,7 +14289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="38" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A38" s="70" t="s">
         <v>10</v>
       </c>
@@ -14292,7 +14315,7 @@
         <v>109</v>
       </c>
       <c r="I38" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J38" s="87"/>
       <c r="K38" s="72" t="s">
@@ -14305,51 +14328,51 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A39" s="39" t="s">
+    <row r="39" spans="1:14" s="24" customFormat="1" ht="45">
+      <c r="A39" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="G39" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="J39" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="L39" s="42" t="s">
+      <c r="I39" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="L39" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="42" t="s">
-        <v>169</v>
+      <c r="M39" s="72" t="s">
+        <v>168</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="40" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A40" s="70" t="s">
         <v>10</v>
       </c>
@@ -14363,81 +14386,81 @@
         <v>24</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F40" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G40" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I40" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J40" s="87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K40" s="72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L40" s="72" t="s">
         <v>44</v>
       </c>
       <c r="M40" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="24" customFormat="1" ht="45">
+      <c r="A41" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="H41" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="24" customFormat="1" ht="47.25">
-      <c r="A41" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="J41" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="L41" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="42" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A42" s="70" t="s">
         <v>47</v>
       </c>
@@ -14463,7 +14486,7 @@
         <v>60</v>
       </c>
       <c r="I42" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J42" s="87"/>
       <c r="K42" s="72" t="s">
@@ -14476,7 +14499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="43" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A43" s="70" t="s">
         <v>10</v>
       </c>
@@ -14502,7 +14525,7 @@
         <v>58</v>
       </c>
       <c r="I43" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J43" s="87"/>
       <c r="K43" s="72" t="s">
@@ -14515,7 +14538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="44" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A44" s="70" t="s">
         <v>47</v>
       </c>
@@ -14535,13 +14558,13 @@
         <v>95</v>
       </c>
       <c r="G44" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H44" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I44" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J44" s="87"/>
       <c r="K44" s="72" t="s">
@@ -14554,7 +14577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="45" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A45" s="70" t="s">
         <v>47</v>
       </c>
@@ -14580,7 +14603,7 @@
         <v>109</v>
       </c>
       <c r="I45" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="87"/>
       <c r="K45" s="72" t="s">
@@ -14593,7 +14616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="46" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A46" s="70" t="s">
         <v>47</v>
       </c>
@@ -14619,7 +14642,7 @@
         <v>60</v>
       </c>
       <c r="I46" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J46" s="87"/>
       <c r="K46" s="72" t="s">
@@ -14632,7 +14655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="47" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A47" s="70" t="s">
         <v>10</v>
       </c>
@@ -14658,7 +14681,7 @@
         <v>58</v>
       </c>
       <c r="I47" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J47" s="87"/>
       <c r="K47" s="72" t="s">
@@ -14671,7 +14694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="48" spans="1:14" s="24" customFormat="1" ht="45">
       <c r="A48" s="70" t="s">
         <v>118</v>
       </c>
@@ -14691,13 +14714,13 @@
         <v>95</v>
       </c>
       <c r="G48" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I48" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J48" s="87"/>
       <c r="K48" s="72" t="s">
@@ -14710,7 +14733,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="49" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A49" s="70" t="s">
         <v>118</v>
       </c>
@@ -14736,7 +14759,7 @@
         <v>103</v>
       </c>
       <c r="I49" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J49" s="87"/>
       <c r="K49" s="72" t="s">
@@ -14749,7 +14772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="50" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A50" s="70" t="s">
         <v>47</v>
       </c>
@@ -14775,7 +14798,7 @@
         <v>60</v>
       </c>
       <c r="I50" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J50" s="87"/>
       <c r="K50" s="72" t="s">
@@ -14788,7 +14811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="51" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A51" s="70" t="s">
         <v>10</v>
       </c>
@@ -14814,7 +14837,7 @@
         <v>58</v>
       </c>
       <c r="I51" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J51" s="87"/>
       <c r="K51" s="72" t="s">
@@ -14827,7 +14850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="52" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A52" s="70" t="s">
         <v>118</v>
       </c>
@@ -14847,13 +14870,13 @@
         <v>101</v>
       </c>
       <c r="G52" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I52" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J52" s="87"/>
       <c r="K52" s="72" t="s">
@@ -14866,7 +14889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="53" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A53" s="70" t="s">
         <v>118</v>
       </c>
@@ -14892,7 +14915,7 @@
         <v>127</v>
       </c>
       <c r="I53" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J53" s="87"/>
       <c r="K53" s="72" t="s">
@@ -14905,7 +14928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="54" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A54" s="19" t="s">
         <v>10</v>
       </c>
@@ -14919,32 +14942,32 @@
         <v>24</v>
       </c>
       <c r="E54" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="G54" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="H54" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="H54" s="69" t="s">
-        <v>143</v>
-      </c>
       <c r="I54" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J54" s="86"/>
       <c r="K54" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L54" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="M54" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="M54" s="23" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="55" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="55" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A55" s="70" t="s">
         <v>10</v>
       </c>
@@ -14958,32 +14981,32 @@
         <v>24</v>
       </c>
       <c r="E55" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="G55" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="H55" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="69" t="s">
-        <v>150</v>
-      </c>
       <c r="I55" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J55" s="87"/>
       <c r="K55" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L55" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="M55" s="72" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="56" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="56" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
@@ -14997,32 +15020,32 @@
         <v>24</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="69" t="s">
-        <v>153</v>
-      </c>
       <c r="H56" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I56" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J56" s="86"/>
       <c r="K56" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="57" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A57" s="70" t="s">
         <v>10</v>
       </c>
@@ -15036,32 +15059,32 @@
         <v>24</v>
       </c>
       <c r="E57" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="F57" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="F57" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G57" s="69" t="s">
-        <v>156</v>
-      </c>
       <c r="H57" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I57" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J57" s="87"/>
       <c r="K57" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M57" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="58" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A58" s="70" t="s">
         <v>10</v>
       </c>
@@ -15075,32 +15098,32 @@
         <v>24</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G58" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H58" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I58" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J58" s="87"/>
       <c r="K58" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L58" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="M58" s="72" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="59" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="59" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A59" s="70" t="s">
         <v>10</v>
       </c>
@@ -15114,32 +15137,32 @@
         <v>24</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F59" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="G59" s="69" t="s">
+      <c r="H59" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="H59" s="69" t="s">
-        <v>161</v>
-      </c>
       <c r="I59" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J59" s="87"/>
       <c r="K59" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L59" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="L59" s="23" t="s">
-        <v>145</v>
-      </c>
       <c r="M59" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="60" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A60" s="70" t="s">
         <v>10</v>
       </c>
@@ -15165,7 +15188,7 @@
         <v>96</v>
       </c>
       <c r="I60" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J60" s="87"/>
       <c r="K60" s="23" t="s">
@@ -15178,7 +15201,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="61" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A61" s="70" t="s">
         <v>10</v>
       </c>
@@ -15204,7 +15227,7 @@
         <v>138</v>
       </c>
       <c r="I61" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J61" s="87"/>
       <c r="K61" s="23" t="s">
@@ -15217,7 +15240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="62" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A62" s="70" t="s">
         <v>10</v>
       </c>
@@ -15237,13 +15260,13 @@
         <v>135</v>
       </c>
       <c r="G62" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H62" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I62" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J62" s="87"/>
       <c r="K62" s="23" t="s">
@@ -15256,7 +15279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="24" customFormat="1" ht="47.25">
+    <row r="63" spans="1:13" s="24" customFormat="1" ht="45">
       <c r="A63" s="70" t="s">
         <v>10</v>
       </c>
@@ -15276,13 +15299,13 @@
         <v>136</v>
       </c>
       <c r="G63" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H63" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I63" s="87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J63" s="87"/>
       <c r="K63" s="23" t="s">
@@ -15295,148 +15318,179 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="24" customFormat="1" ht="15.75">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="38"/>
+    <row r="64" spans="1:13" s="24" customFormat="1" ht="45">
+      <c r="A64" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="I64" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="88"/>
+      <c r="K64" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L64" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M64" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
+    <row r="65" spans="1:26" s="24" customFormat="1" ht="45">
+      <c r="A65" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" s="88"/>
+      <c r="K65" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L65" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
+    <row r="66" spans="1:26" s="24" customFormat="1" ht="45">
+      <c r="A66" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I66" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J66" s="88"/>
+      <c r="K66" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L66" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M66" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
+    <row r="67" spans="1:26" s="24" customFormat="1" ht="45">
+      <c r="A67" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J67" s="88"/>
+      <c r="K67" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="L67" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="M67" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
+    <row r="68" spans="1:26" s="24" customFormat="1">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="38"/>
     </row>
-    <row r="69" spans="1:26" s="24" customFormat="1" ht="15.75">
+    <row r="69" spans="1:26" s="24" customFormat="1">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -15451,52 +15505,117 @@
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
     </row>
-    <row r="70" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
     </row>
-    <row r="71" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="86"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="82"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
     </row>
-    <row r="72" spans="1:26" s="24" customFormat="1" ht="15.75">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
     </row>
-    <row r="73" spans="1:26" s="24" customFormat="1" ht="15.75">
+    <row r="73" spans="1:26" s="24" customFormat="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -15511,135 +15630,80 @@
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
+    <row r="74" spans="1:26" s="24" customFormat="1">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
+    <row r="75" spans="1:26" s="24" customFormat="1">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
+    <row r="76" spans="1:26" s="24" customFormat="1">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
+    <row r="77" spans="1:26" s="24" customFormat="1">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="28"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -15652,42 +15716,23 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L79" s="7"/>
+      <c r="A79" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="30"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="33"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
@@ -15698,32 +15743,51 @@
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
     </row>
-    <row r="80" spans="1:26" s="7" customFormat="1" ht="15.75">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="28"/>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="91"/>
-      <c r="K81" s="28"/>
+      <c r="A81" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="80"/>
+      <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
@@ -15735,10 +15799,13 @@
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="29" t="s">
-        <v>35</v>
+      <c r="A82" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -15766,17 +15833,39 @@
       <c r="Y82" s="7"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="7"/>
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
@@ -15788,67 +15877,33 @@
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
     </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
+    <row r="84" spans="1:25" s="7" customFormat="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="90"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="28"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="93" t="s">
-        <v>23</v>
-      </c>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="91"/>
+      <c r="J85" s="90"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
@@ -15859,20 +15914,22 @@
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="91"/>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A86" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
@@ -15887,16 +15944,19 @@
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="91"/>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -15912,15 +15972,20 @@
       <c r="Y87" s="7"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="91"/>
+      <c r="A88" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="80"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
@@ -15936,18 +16001,33 @@
       <c r="Y88" s="7"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="80"/>
-      <c r="J89" s="80"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="A89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="92" t="s">
+        <v>23</v>
+      </c>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
@@ -15962,21 +16042,16 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="80"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+    <row r="90" spans="1:25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="90"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
@@ -15991,21 +16066,16 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+    <row r="91" spans="1:25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="90"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
@@ -16021,34 +16091,15 @@
       <c r="Y91" s="7"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="90"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
@@ -16063,27 +16114,44 @@
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
     </row>
-    <row r="93" spans="1:25" s="7" customFormat="1" ht="15.75">
-      <c r="A93" s="12"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="12"/>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
       <c r="I93" s="80"/>
       <c r="J93" s="80"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="18"/>
+      <c r="A94" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="80"/>
       <c r="J94" s="80"/>
       <c r="K94" s="7"/>
@@ -16103,8 +16171,8 @@
       <c r="Y94" s="7"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="29" t="s">
-        <v>35</v>
+      <c r="A95" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -16131,6 +16199,117 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
     </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A96" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="80"/>
+      <c r="J96" s="80"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+    </row>
+    <row r="97" spans="1:25" s="7" customFormat="1">
+      <c r="A97" s="12"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="80"/>
+      <c r="J97" s="80"/>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="80"/>
+      <c r="J98" s="80"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A99" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="80"/>
+      <c r="J99" s="80"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="A10:Z63"/>
   <phoneticPr fontId="36"/>
@@ -16143,7 +16322,7 @@
     <oddFooter>&amp;L&amp;A&amp;C&amp;P／&amp;R&amp;F</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E11:H20 E23:H32 E21:F22 K21:M22 E35:H36 E45:H47 E44:F44 K44:M44 E60:H60 E52:F52 K52:M52 E64:H65 E33:F34 K33:M34 E42:H43 E37:F37 K37:M37 E49:H51 E48:F48 K48:M48 E62:F63 K62:M63 E53:H53 E54:F59 E61:H61 M61 E38:H38 E41:F41 E39:F39 E40:F40 K11:M20 K23:M32 K35:M36 K45:M47 K60:M60 K64:M65 K42:M43 K49:M51 K53:M53 K38:M38" numberStoredAsText="1"/>
+    <ignoredError sqref="E11:H20 E23:H32 E21:F22 K21:M22 E35:H36 E45:H47 E44:F44 K44:M44 E60:H60 E52:F52 K52:M52 E68:H69 E33:F34 K33:M34 E42:H43 E37:F37 K37:M37 E49:H51 E48:F48 K48:M48 E62:F63 K62:M63 E53:H53 E54:F59 E61:H61 M61 E38:H38 E41:F41 E39:F39 E40:F40 K11:M20 K23:M32 K35:M36 K45:M47 K60:M60 K68:M69 K42:M43 K49:M51 K53:M53 K38:M38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
+++ b/20_営業/07_会計/BR100/ERP_T_BR100_CFO_GL-023_会社間貸借一致ルールの管理.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\会社間振替\セットアップ文書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20246_【会計】基幹システムバージョンアップ（会計領域　GL部門入力）\20_成果物\07_本番リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="408" yWindow="7836" windowWidth="14712" windowHeight="8820" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="405" yWindow="7830" windowWidth="14715" windowHeight="2355" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="2" r:id="rId1"/>
@@ -955,12 +955,12 @@
     <definedName name="有効桁数">#REF!</definedName>
     <definedName name="列長">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="208">
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
@@ -2099,6 +2099,120 @@
     <phoneticPr fontId="36"/>
   </si>
   <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>ERP_GL部門入力</t>
+    <rPh sb="6" eb="10">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>振替伝票</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="46"/>
+  </si>
+  <si>
+    <t>002-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>財務経理用_ERP_GL部門入力</t>
+    <rPh sb="0" eb="4">
+      <t>ザイムケイリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>スプレッドシート</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>1.0.5</t>
+  </si>
+  <si>
+    <t>1.0.6</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>1.0.7</t>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
+    <t>E_本稼動_20246　STEP４ GL部門入力対応
+スプレッドシートからの会社間振替対応(72～75行目)</t>
+    <rPh sb="20" eb="24">
+      <t>ブモンニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="43">
+      <t>カイシャカンフリカエ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="36"/>
+  </si>
+  <si>
     <t>E_本稼動_20246　STEP４ GL部門入力対応
 ERP部門入力からの会社間振替対応</t>
     <rPh sb="20" eb="24">
@@ -2116,51 +2230,6 @@
     <rPh sb="42" eb="44">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="46"/>
-  </si>
-  <si>
-    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="46"/>
-  </si>
-  <si>
-    <t>ERP_GL部門入力</t>
-    <rPh sb="6" eb="10">
-      <t>ブモンニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>振替伝票</t>
-    <rPh sb="0" eb="2">
-      <t>フリカエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンピョウ</t>
-    </rPh>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39220-3922000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="46"/>
-  </si>
-  <si>
-    <t>002-9090-39102-3910200000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>001-9090-39230-3923000000-000000000-000000-0-0</t>
-    <phoneticPr fontId="36"/>
-  </si>
-  <si>
-    <t>003-9090-39102-3910200000-000000000-000000-0-0</t>
     <phoneticPr fontId="36"/>
   </si>
 </sst>
@@ -2570,7 +2639,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFFF3399"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2691,7 +2760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3081,6 +3150,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3252,7 +3352,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
@@ -3514,6 +3614,39 @@
     <xf numFmtId="49" fontId="49" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3541,53 +3674,23 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3613,14 +3716,50 @@
     <xf numFmtId="0" fontId="38" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3631,72 +3770,6 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="59" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3706,8 +3779,47 @@
     <xf numFmtId="0" fontId="37" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="59" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -3781,6 +3893,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -11479,174 +11592,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="8" width="2.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="8" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.75" style="1" customWidth="1"/>
+    <col min="10" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="11.4" thickBot="1"/>
-    <row r="2" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A2" s="125" t="s">
+    <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:41" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="125" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="95" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="96"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="106"/>
+      <c r="AM2" s="106"/>
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="107"/>
     </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="145">
+    <row r="3" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A3" s="129">
         <v>44865</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="131" t="s">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="97" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="99"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="110"/>
     </row>
-    <row r="4" spans="1:37" ht="48" customHeight="1">
-      <c r="A4" s="143">
+    <row r="4" spans="1:41" ht="48" customHeight="1">
+      <c r="A4" s="132">
         <v>45027</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="134" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="100" t="s">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="102"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="113"/>
     </row>
-    <row r="5" spans="1:37" ht="82.95" customHeight="1">
-      <c r="A5" s="143">
+    <row r="5" spans="1:41" ht="82.9" customHeight="1">
+      <c r="A5" s="132">
         <v>45355</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="134" t="s">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="103" t="s">
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="150" t="s">
+        <v>200</v>
+      </c>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
       <c r="O5" s="104"/>
       <c r="P5" s="104"/>
       <c r="Q5" s="104"/>
@@ -11669,1009 +11806,1158 @@
       <c r="AH5" s="104"/>
       <c r="AI5" s="104"/>
       <c r="AJ5" s="104"/>
-      <c r="AK5" s="105"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="105"/>
     </row>
-    <row r="6" spans="1:37" s="77" customFormat="1" ht="55.5" customHeight="1">
-      <c r="A6" s="153">
+    <row r="6" spans="1:41" s="77" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A6" s="137">
         <v>45485</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="137" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="108" t="s">
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="110"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="99"/>
     </row>
-    <row r="7" spans="1:37" ht="24" customHeight="1">
-      <c r="A7" s="143">
+    <row r="7" spans="1:41" ht="24" customHeight="1">
+      <c r="A7" s="132">
         <v>45538</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="134" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="111" t="s">
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="150" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="100" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="112"/>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="113"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="102"/>
     </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="143">
+    <row r="8" spans="1:41" ht="11.25" customHeight="1">
+      <c r="A8" s="132">
         <v>45545</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="134" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="111" t="s">
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="113"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="102"/>
     </row>
-    <row r="9" spans="1:37" ht="35.4" customHeight="1">
-      <c r="A9" s="150">
+    <row r="9" spans="1:41" ht="35.450000000000003" customHeight="1">
+      <c r="A9" s="132">
         <v>45615</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="159" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="115"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="115"/>
-      <c r="AD9" s="115"/>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="116"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="105"/>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="144"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="119"/>
+    <row r="10" spans="1:41" ht="30" customHeight="1">
+      <c r="A10" s="155">
+        <v>45667</v>
+      </c>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="159" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="162"/>
+      <c r="AM10" s="162"/>
+      <c r="AN10" s="162"/>
+      <c r="AO10" s="163"/>
     </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="140"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="107"/>
+    <row r="11" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="96"/>
     </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="107"/>
+    <row r="12" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A12" s="115"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="96"/>
     </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="140"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="107"/>
+    <row r="13" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A13" s="115"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="96"/>
     </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="140"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="107"/>
+    <row r="14" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="96"/>
     </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="140"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="107"/>
+    <row r="15" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="96"/>
     </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="140"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="106"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="106"/>
-      <c r="AJ16" s="106"/>
-      <c r="AK16" s="107"/>
+    <row r="16" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="96"/>
     </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="140"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="106"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="107"/>
+    <row r="17" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="96"/>
     </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="107"/>
+    <row r="18" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A18" s="115"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="95"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="96"/>
     </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="140"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="107"/>
+    <row r="19" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="95"/>
+      <c r="AM19" s="95"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="96"/>
     </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="107"/>
+    <row r="20" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="96"/>
     </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="140"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="107"/>
+    <row r="21" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="96"/>
     </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="140"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="107"/>
+    <row r="22" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A22" s="115"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="95"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="96"/>
     </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="107"/>
+    <row r="23" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A23" s="115"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="96"/>
     </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="140"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="107"/>
+    <row r="24" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="95"/>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="96"/>
     </row>
-    <row r="25" spans="1:37">
-      <c r="A25" s="140"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="107"/>
+    <row r="25" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="95"/>
+      <c r="AM25" s="95"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="96"/>
     </row>
-    <row r="26" spans="1:37">
-      <c r="A26" s="140"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="107"/>
+    <row r="26" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="96"/>
     </row>
-    <row r="27" spans="1:37">
-      <c r="A27" s="140"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="107"/>
+    <row r="27" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="96"/>
     </row>
-    <row r="28" spans="1:37">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="107"/>
+    <row r="28" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="95"/>
+      <c r="AM28" s="95"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="96"/>
     </row>
-    <row r="29" spans="1:37">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="107"/>
+    <row r="29" spans="1:41" ht="13.5" customHeight="1">
+      <c r="A29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="96"/>
     </row>
-    <row r="30" spans="1:37" ht="11.4" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
+    <row r="30" spans="1:41" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A30" s="147"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="121"/>
+      <c r="AJ30" s="121"/>
       <c r="AK30" s="121"/>
+      <c r="AL30" s="121"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="121"/>
+      <c r="AO30" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="116">
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -12688,6 +12974,14 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
@@ -12704,25 +12998,20 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J28:AK28"/>
-    <mergeCell ref="J29:AK29"/>
-    <mergeCell ref="J30:AK30"/>
+    <mergeCell ref="N28:AO28"/>
+    <mergeCell ref="N29:AO29"/>
+    <mergeCell ref="N30:AO30"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
@@ -12730,35 +13019,32 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J23:AK23"/>
-    <mergeCell ref="J24:AK24"/>
-    <mergeCell ref="J25:AK25"/>
-    <mergeCell ref="J26:AK26"/>
-    <mergeCell ref="J27:AK27"/>
-    <mergeCell ref="J18:AK18"/>
-    <mergeCell ref="J19:AK19"/>
-    <mergeCell ref="J20:AK20"/>
-    <mergeCell ref="J21:AK21"/>
-    <mergeCell ref="J22:AK22"/>
-    <mergeCell ref="J13:AK13"/>
-    <mergeCell ref="J14:AK14"/>
-    <mergeCell ref="J15:AK15"/>
-    <mergeCell ref="J16:AK16"/>
-    <mergeCell ref="J17:AK17"/>
-    <mergeCell ref="J12:AK12"/>
-    <mergeCell ref="J6:AK6"/>
-    <mergeCell ref="J7:AK7"/>
-    <mergeCell ref="J8:AK8"/>
-    <mergeCell ref="J9:AK9"/>
-    <mergeCell ref="J10:AK10"/>
-    <mergeCell ref="J2:AK2"/>
-    <mergeCell ref="J3:AK3"/>
-    <mergeCell ref="J4:AK4"/>
-    <mergeCell ref="J5:AK5"/>
-    <mergeCell ref="J11:AK11"/>
+    <mergeCell ref="N23:AO23"/>
+    <mergeCell ref="N24:AO24"/>
+    <mergeCell ref="N25:AO25"/>
+    <mergeCell ref="N26:AO26"/>
+    <mergeCell ref="N27:AO27"/>
+    <mergeCell ref="N18:AO18"/>
+    <mergeCell ref="N19:AO19"/>
+    <mergeCell ref="N20:AO20"/>
+    <mergeCell ref="N21:AO21"/>
+    <mergeCell ref="N22:AO22"/>
+    <mergeCell ref="N13:AO13"/>
+    <mergeCell ref="N14:AO14"/>
+    <mergeCell ref="N15:AO15"/>
+    <mergeCell ref="N16:AO16"/>
+    <mergeCell ref="N17:AO17"/>
+    <mergeCell ref="N12:AO12"/>
+    <mergeCell ref="N11:AO11"/>
+    <mergeCell ref="N6:AO6"/>
+    <mergeCell ref="N7:AO7"/>
+    <mergeCell ref="N8:AO8"/>
+    <mergeCell ref="N9:AO9"/>
+    <mergeCell ref="N10:AO10"/>
+    <mergeCell ref="N2:AO2"/>
+    <mergeCell ref="N3:AO3"/>
+    <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="N5:AO5"/>
   </mergeCells>
   <phoneticPr fontId="36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -12773,15 +13059,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="67" customWidth="1"/>
-    <col min="3" max="4" width="37.6640625" style="67" customWidth="1"/>
-    <col min="5" max="16384" width="9.77734375" style="66"/>
+    <col min="1" max="1" width="5.5" style="66" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="67" customWidth="1"/>
+    <col min="3" max="4" width="37.625" style="67" customWidth="1"/>
+    <col min="5" max="16384" width="9.75" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="11.4"/>
+    <row r="1" spans="1:11" s="43" customFormat="1" ht="12"/>
     <row r="2" spans="1:11" s="44" customFormat="1" ht="7.5" customHeight="1">
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -12802,8 +13088,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" thickBot="1"/>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="6" spans="1:11" s="44" customFormat="1" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="A7" s="44"/>
       <c r="B7" s="49" t="s">
         <v>63</v>
@@ -12815,7 +13101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="46.95" customHeight="1">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="46.9" customHeight="1">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>66</v>
@@ -12827,19 +13113,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="9" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="A9" s="44"/>
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
       <c r="D9" s="55"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1" ht="14.4">
+    <row r="10" spans="1:11" s="52" customFormat="1" ht="14.25">
       <c r="A10" s="44"/>
       <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" thickBot="1">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="44"/>
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
@@ -12897,26 +13183,26 @@
     <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD69"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="25.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="4" customWidth="1"/>
-    <col min="5" max="6" width="24.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.33203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="23.44140625" style="93" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="7.88671875" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="12.44140625" style="4"/>
+    <col min="1" max="1" width="34.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="25.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="24.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="23.5" style="93" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="7.875" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="12.5" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -13145,7 +13431,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="19.2" customHeight="1">
+    <row r="9" spans="1:26" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -13228,7 +13514,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="11" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
@@ -13269,7 +13555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="12" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
@@ -13308,7 +13594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="13" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A13" s="70" t="s">
         <v>10</v>
       </c>
@@ -13347,7 +13633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="14" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A14" s="73" t="s">
         <v>10</v>
       </c>
@@ -13388,7 +13674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="15" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
@@ -13427,7 +13713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="38" customFormat="1" ht="45">
+    <row r="16" spans="1:26" s="38" customFormat="1" ht="47.25">
       <c r="A16" s="70" t="s">
         <v>10</v>
       </c>
@@ -13466,7 +13752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="17" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A17" s="70" t="s">
         <v>10</v>
       </c>
@@ -13505,7 +13791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="18" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A18" s="70" t="s">
         <v>10</v>
       </c>
@@ -13525,10 +13811,10 @@
         <v>57</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="87" t="s">
         <v>176</v>
@@ -13544,7 +13830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="38" customFormat="1" ht="45">
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="47.25">
       <c r="A19" s="70" t="s">
         <v>10</v>
       </c>
@@ -13583,7 +13869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="20" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A20" s="70" t="s">
         <v>10</v>
       </c>
@@ -13622,7 +13908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="21" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A21" s="70" t="s">
         <v>10</v>
       </c>
@@ -13661,7 +13947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="22" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A22" s="70" t="s">
         <v>10</v>
       </c>
@@ -13700,7 +13986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A23" s="73" t="s">
         <v>10</v>
       </c>
@@ -13741,7 +14027,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="24" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A24" s="19" t="s">
         <v>10</v>
       </c>
@@ -13780,7 +14066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A25" s="70" t="s">
         <v>10</v>
       </c>
@@ -13819,7 +14105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="26" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A26" s="73" t="s">
         <v>10</v>
       </c>
@@ -13860,7 +14146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="27" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A27" s="19" t="s">
         <v>10</v>
       </c>
@@ -13899,7 +14185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="28" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A28" s="70" t="s">
         <v>10</v>
       </c>
@@ -13938,7 +14224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="29" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A29" s="70" t="s">
         <v>10</v>
       </c>
@@ -13977,7 +14263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="30" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A30" s="70" t="s">
         <v>10</v>
       </c>
@@ -13997,10 +14283,10 @@
         <v>57</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I30" s="87" t="s">
         <v>176</v>
@@ -14016,7 +14302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A31" s="70" t="s">
         <v>10</v>
       </c>
@@ -14055,7 +14341,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="32" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A32" s="70" t="s">
         <v>10</v>
       </c>
@@ -14094,7 +14380,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="33" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A33" s="70" t="s">
         <v>10</v>
       </c>
@@ -14133,7 +14419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="34" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A34" s="70" t="s">
         <v>10</v>
       </c>
@@ -14172,7 +14458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="35" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A35" s="70" t="s">
         <v>47</v>
       </c>
@@ -14211,7 +14497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="36" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A36" s="70" t="s">
         <v>10</v>
       </c>
@@ -14250,7 +14536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="37" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A37" s="70" t="s">
         <v>47</v>
       </c>
@@ -14289,7 +14575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="38" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A38" s="70" t="s">
         <v>10</v>
       </c>
@@ -14328,7 +14614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="39" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A39" s="70" t="s">
         <v>10</v>
       </c>
@@ -14372,7 +14658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="40" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A40" s="70" t="s">
         <v>10</v>
       </c>
@@ -14416,7 +14702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="41" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A41" s="70" t="s">
         <v>10</v>
       </c>
@@ -14460,7 +14746,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="42" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A42" s="70" t="s">
         <v>47</v>
       </c>
@@ -14499,7 +14785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="43" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A43" s="70" t="s">
         <v>10</v>
       </c>
@@ -14538,7 +14824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="44" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A44" s="70" t="s">
         <v>47</v>
       </c>
@@ -14577,7 +14863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="45" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A45" s="70" t="s">
         <v>47</v>
       </c>
@@ -14616,7 +14902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="46" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A46" s="70" t="s">
         <v>47</v>
       </c>
@@ -14655,7 +14941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="47" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A47" s="70" t="s">
         <v>10</v>
       </c>
@@ -14694,7 +14980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="24" customFormat="1" ht="45">
+    <row r="48" spans="1:14" s="24" customFormat="1" ht="47.25">
       <c r="A48" s="70" t="s">
         <v>118</v>
       </c>
@@ -14733,7 +15019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="49" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A49" s="70" t="s">
         <v>118</v>
       </c>
@@ -14772,7 +15058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="50" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A50" s="70" t="s">
         <v>47</v>
       </c>
@@ -14811,7 +15097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="51" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A51" s="70" t="s">
         <v>10</v>
       </c>
@@ -14850,7 +15136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="52" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A52" s="70" t="s">
         <v>118</v>
       </c>
@@ -14889,7 +15175,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="53" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A53" s="70" t="s">
         <v>118</v>
       </c>
@@ -14928,7 +15214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="54" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A54" s="19" t="s">
         <v>10</v>
       </c>
@@ -14967,7 +15253,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="55" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A55" s="70" t="s">
         <v>10</v>
       </c>
@@ -15006,7 +15292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="56" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
@@ -15045,7 +15331,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="57" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A57" s="70" t="s">
         <v>10</v>
       </c>
@@ -15084,7 +15370,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="58" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A58" s="70" t="s">
         <v>10</v>
       </c>
@@ -15123,7 +15409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="59" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A59" s="70" t="s">
         <v>10</v>
       </c>
@@ -15162,7 +15448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="60" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A60" s="70" t="s">
         <v>10</v>
       </c>
@@ -15201,7 +15487,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="61" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A61" s="70" t="s">
         <v>10</v>
       </c>
@@ -15240,7 +15526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="62" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A62" s="70" t="s">
         <v>10</v>
       </c>
@@ -15279,7 +15565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="63" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A63" s="70" t="s">
         <v>10</v>
       </c>
@@ -15318,7 +15604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="24" customFormat="1" ht="45">
+    <row r="64" spans="1:13" s="24" customFormat="1" ht="47.25">
       <c r="A64" s="39" t="s">
         <v>47</v>
       </c>
@@ -15338,26 +15624,26 @@
         <v>57</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I64" s="88" t="s">
         <v>176</v>
       </c>
       <c r="J64" s="88"/>
       <c r="K64" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L64" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="L64" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="M64" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="65" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A65" s="39" t="s">
         <v>10</v>
       </c>
@@ -15377,7 +15663,7 @@
         <v>25</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H65" s="41" t="s">
         <v>58</v>
@@ -15387,16 +15673,16 @@
       </c>
       <c r="J65" s="88"/>
       <c r="K65" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L65" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="L65" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="M65" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="66" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A66" s="39" t="s">
         <v>47</v>
       </c>
@@ -15416,26 +15702,26 @@
         <v>126</v>
       </c>
       <c r="G66" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="41" t="s">
         <v>193</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>194</v>
       </c>
       <c r="I66" s="88" t="s">
         <v>176</v>
       </c>
       <c r="J66" s="88"/>
       <c r="K66" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L66" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="L66" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="M66" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="24" customFormat="1" ht="45">
+    <row r="67" spans="1:26" s="24" customFormat="1" ht="47.25">
       <c r="A67" s="39" t="s">
         <v>10</v>
       </c>
@@ -15458,209 +15744,335 @@
         <v>102</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I67" s="88" t="s">
         <v>176</v>
       </c>
       <c r="J67" s="88"/>
       <c r="K67" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L67" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="L67" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="M67" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="24" customFormat="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="38"/>
+    <row r="68" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A68" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I68" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J68" s="88"/>
+      <c r="K68" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L68" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" s="24" customFormat="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="86"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
+    <row r="69" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A69" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J69" s="88"/>
+      <c r="K69" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L69" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M69" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
+    <row r="70" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A70" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J70" s="88"/>
+      <c r="K70" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L70" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="82"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
+    <row r="71" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A71" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J71" s="88"/>
+      <c r="K71" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L71" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M71" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
+    <row r="72" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A72" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J72" s="88"/>
+      <c r="K72" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L72" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M72" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="73" spans="1:26" s="24" customFormat="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
+    <row r="73" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A73" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J73" s="88"/>
+      <c r="K73" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L73" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M73" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="74" spans="1:26" s="24" customFormat="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
+    <row r="74" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A74" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74" s="88"/>
+      <c r="K74" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L74" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M74" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="75" spans="1:26" s="24" customFormat="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="86"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
+    <row r="75" spans="1:26" s="24" customFormat="1" ht="47.25">
+      <c r="A75" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I75" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="J75" s="88"/>
+      <c r="K75" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L75" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="M75" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="76" spans="1:26" s="24" customFormat="1">
+    <row r="76" spans="1:26" s="24" customFormat="1" ht="15.75">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -15674,8 +16086,9 @@
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
+      <c r="N76" s="38"/>
     </row>
-    <row r="77" spans="1:26" s="24" customFormat="1">
+    <row r="77" spans="1:26" s="24" customFormat="1" ht="15.75">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -15691,19 +16104,19 @@
       <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="28"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
@@ -15716,24 +16129,23 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
-      <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="79"/>
-      <c r="J79" s="79"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="7"/>
+      <c r="A79" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="82"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -15748,19 +16160,45 @@
       <c r="Y79" s="7"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
+      <c r="A80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
@@ -15773,164 +16211,97 @@
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
+    <row r="81" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="86"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
     </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
+    <row r="82" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
     </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
+    <row r="83" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
     </row>
-    <row r="84" spans="1:25" s="7" customFormat="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
-      <c r="K84" s="28"/>
+    <row r="84" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="86"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
     </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
+    <row r="85" spans="1:26" s="24" customFormat="1" ht="15.75">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
     </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="89"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="28"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
@@ -15943,20 +16314,23 @@
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
     </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A87" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="33"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -15971,10 +16345,8 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
     </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="13" t="s">
-        <v>40</v>
-      </c>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -16000,34 +16372,21 @@
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
     </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="92" t="s">
-        <v>23</v>
-      </c>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A89" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
@@ -16042,16 +16401,21 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
     </row>
-    <row r="90" spans="1:25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="90"/>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
@@ -16066,16 +16430,41 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
     </row>
-    <row r="91" spans="1:25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="90"/>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
@@ -16086,46 +16475,32 @@
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
     </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+    <row r="92" spans="1:26" s="7" customFormat="1" ht="15.75">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="90"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
+      <c r="J92" s="90"/>
+      <c r="K92" s="28"/>
     </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
-      <c r="K93" s="7"/>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="91"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="28"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
@@ -16137,13 +16512,10 @@
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
     </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="13" t="s">
-        <v>41</v>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A94" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -16170,10 +16542,8 @@
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
     </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -16199,31 +16569,17 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
     </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A96" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>23</v>
-      </c>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A96" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
       <c r="I96" s="80"/>
       <c r="J96" s="80"/>
       <c r="K96" s="7"/>
@@ -16242,31 +16598,58 @@
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
     </row>
-    <row r="97" spans="1:25" s="7" customFormat="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="80"/>
-      <c r="J97" s="80"/>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
     </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="26"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="80"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="90"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
@@ -16281,21 +16664,16 @@
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
     </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A99" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="80"/>
-      <c r="J99" s="80"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+    <row r="99" spans="1:25" ht="15.75">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="90"/>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
@@ -16310,6 +16688,226 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
     </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="90"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="80"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A102" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="80"/>
+      <c r="J102" s="80"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="80"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A104" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" s="80"/>
+      <c r="J104" s="80"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+    </row>
+    <row r="105" spans="1:25" s="7" customFormat="1" ht="15.75">
+      <c r="A105" s="12"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="80"/>
+      <c r="J105" s="80"/>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="80"/>
+      <c r="J106" s="80"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A107" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="80"/>
+      <c r="J107" s="80"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+    </row>
   </sheetData>
   <autoFilter ref="A10:Z63"/>
   <phoneticPr fontId="36"/>
@@ -16317,12 +16915,12 @@
     <hyperlink ref="A1" location="目次!A1" display="目次"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P／&amp;R&amp;F</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E11:H20 E23:H32 E21:F22 K21:M22 E35:H36 E45:H47 E44:F44 K44:M44 E60:H60 E52:F52 K52:M52 E68:H69 E33:F34 K33:M34 E42:H43 E37:F37 K37:M37 E49:H51 E48:F48 K48:M48 E62:F63 K62:M63 E53:H53 E54:F59 E61:H61 M61 E38:H38 E41:F41 E39:F39 E40:F40 K11:M20 K23:M32 K35:M36 K45:M47 K60:M60 K68:M69 K42:M43 K49:M51 K53:M53 K38:M38" numberStoredAsText="1"/>
+    <ignoredError sqref="E11:H20 E23:H32 E21:F22 K21:M22 E35:H36 E45:H47 E44:F44 K44:M44 E60:H60 E52:F52 K52:M52 E76:H77 E33:F34 K33:M34 E42:H43 E37:F37 K37:M37 E49:H51 E48:F48 K48:M48 E62:F63 K62:M63 E53:H53 E54:F59 E61:H61 M61 E38:H38 E41:F41 E39:F39 E40:F40 K11:M20 K23:M32 K35:M36 K45:M47 K60:M60 K76:M77 K42:M43 K49:M51 K53:M53 K38:M38" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>